--- a/Tower_geometries_DB.xlsx
+++ b/Tower_geometries_DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smachado\Documents\Coding\julia_start\julia_start\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D287E2F-5D88-4567-81EB-464F7E9F93E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D64B94-0FF4-44F9-8CFA-EF435AAB1683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-2850" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{5A543754-10BD-46A1-BB7E-1555BE2268B4}"/>
   </bookViews>

--- a/Tower_geometries_DB.xlsx
+++ b/Tower_geometries_DB.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smachado\Documents\Coding\julia_start\julia_start\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D64B94-0FF4-44F9-8CFA-EF435AAB1683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8CCB6C-D687-4F4D-A4ED-4721E8924F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2850" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{5A543754-10BD-46A1-BB7E-1555BE2268B4}"/>
+    <workbookView xWindow="-28920" yWindow="-2850" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{5A543754-10BD-46A1-BB7E-1555BE2268B4}"/>
   </bookViews>
   <sheets>
     <sheet name="TL_Geometry" sheetId="1" r:id="rId1"/>
-    <sheet name="Neighboring" sheetId="5" r:id="rId2"/>
-    <sheet name="Sources" sheetId="2" r:id="rId3"/>
+    <sheet name="TL_data_set" sheetId="7" r:id="rId2"/>
+    <sheet name="Neighboring" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
+    <sheet name="Sources" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -106,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="363">
   <si>
     <t>3L1</t>
   </si>
@@ -1603,9 +1605,6 @@
     <t>2, 2, 2</t>
   </si>
   <si>
-    <t>Conductor_Type</t>
-  </si>
-  <si>
     <t>bundling</t>
   </si>
   <si>
@@ -1945,15 +1944,6 @@
     <t>n_ground_w</t>
   </si>
   <si>
-    <t>Serial number</t>
-  </si>
-  <si>
-    <t>State name</t>
-  </si>
-  <si>
-    <t>Number of bordering states</t>
-  </si>
-  <si>
     <t>Mississippi, Tennessee, Florida, Georgia</t>
   </si>
   <si>
@@ -2359,10 +2349,28 @@
     <t>WY</t>
   </si>
   <si>
-    <t>Abreviation</t>
-  </si>
-  <si>
-    <t>Bordering States</t>
+    <t>ground_diameter_inch</t>
+  </si>
+  <si>
+    <t>ground_Type</t>
+  </si>
+  <si>
+    <t>conductor_type</t>
+  </si>
+  <si>
+    <t>miles</t>
+  </si>
+  <si>
+    <t>abreviation</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>bordering_states</t>
+  </si>
+  <si>
+    <t>n_bordering_states</t>
   </si>
 </sst>
 </file>
@@ -2516,7 +2524,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2620,7 +2628,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2655,7 +2662,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>320040</xdr:rowOff>
+      <xdr:rowOff>323850</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2751,7 +2758,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>320040</xdr:rowOff>
+      <xdr:rowOff>323850</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2799,7 +2806,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>320040</xdr:rowOff>
+      <xdr:rowOff>323850</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2847,7 +2854,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2895,7 +2902,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3513,7 +3520,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD3"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3562,97 +3569,97 @@
   <sheetData>
     <row r="1" spans="1:75" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>216</v>
-      </c>
       <c r="E1" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="R1" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="S1" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="T1" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="U1" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="V1" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="V1" s="16" t="s">
+      <c r="W1" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="W1" s="17" t="s">
+      <c r="X1" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="X1" s="17" t="s">
+      <c r="Y1" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="Y1" s="18" t="s">
+      <c r="Z1" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="Z1" s="22" t="s">
+      <c r="AA1" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="AA1" s="23" t="s">
+      <c r="AB1" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="AB1" s="23" t="s">
+      <c r="AC1" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="AC1" s="23" t="s">
+      <c r="AD1" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="AD1" s="23" t="s">
+      <c r="AE1" s="24" t="s">
         <v>212</v>
-      </c>
-      <c r="AE1" s="24" t="s">
-        <v>213</v>
       </c>
       <c r="AF1" s="2"/>
       <c r="AG1" s="10" t="s">
@@ -3811,15 +3818,15 @@
         <v>10.840634357325053</v>
       </c>
       <c r="P2" s="13">
-        <f>AG2+(AH2*(1/12))-O2</f>
+        <f t="shared" ref="P2:P33" si="0">AG2+(AH2*(1/12))-O2</f>
         <v>69.159365642674942</v>
       </c>
       <c r="Q2" s="14">
-        <f>AI2+(AJ2*(1/12))-O2</f>
+        <f t="shared" ref="Q2:Q33" si="1">AI2+(AJ2*(1/12))-O2</f>
         <v>69.159365642674942</v>
       </c>
       <c r="R2" s="14">
-        <f>AK2+(AL2*(1/12))-O2</f>
+        <f t="shared" ref="R2:R33" si="2">AK2+(AL2*(1/12))-O2</f>
         <v>69.159365642674942</v>
       </c>
       <c r="S2" s="14">
@@ -3851,27 +3858,27 @@
         <v>17.8125</v>
       </c>
       <c r="Z2" s="25">
-        <f>BC2+(BD2*(1/12))-O2</f>
+        <f t="shared" ref="Z2:Z33" si="3">BC2+(BD2*(1/12))-O2</f>
         <v>-10.840634357325053</v>
       </c>
       <c r="AA2" s="26">
-        <f>BE2+(BF2*(1/12))-O2</f>
+        <f t="shared" ref="AA2:AA33" si="4">BE2+(BF2*(1/12))-O2</f>
         <v>-10.840634357325053</v>
       </c>
       <c r="AB2" s="26">
-        <f>BG2+(BH2*(1/12))-O2</f>
+        <f t="shared" ref="AB2:AB33" si="5">BG2+(BH2*(1/12))-O2</f>
         <v>-10.840634357325053</v>
       </c>
       <c r="AC2" s="26">
-        <f t="shared" ref="AC2:AC6" si="0">BI2+(BJ2*(1/12))</f>
+        <f t="shared" ref="AC2:AC6" si="6">BI2+(BJ2*(1/12))</f>
         <v>0</v>
       </c>
       <c r="AD2" s="26">
-        <f t="shared" ref="AD2:AD6" si="1">BK2+(BL2*(1/12))</f>
+        <f t="shared" ref="AD2:AD6" si="7">BK2+(BL2*(1/12))</f>
         <v>0</v>
       </c>
       <c r="AE2" s="27">
-        <f t="shared" ref="AE2:AE6" si="2">BM2+(BN2*(1/12))</f>
+        <f t="shared" ref="AE2:AE6" si="8">BM2+(BN2*(1/12))</f>
         <v>0</v>
       </c>
       <c r="AG2" s="13">
@@ -4021,31 +4028,31 @@
         <v>170</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O14" si="3">((K3*L3)/M3)*N3*(1/304.8)</f>
+        <f t="shared" ref="O3:O14" si="9">((K3*L3)/M3)*N3*(1/304.8)</f>
         <v>10.840634357325053</v>
       </c>
       <c r="P3" s="13">
-        <f>AG3+(AH3*(1/12))-O3</f>
+        <f t="shared" si="0"/>
         <v>69.159365642674942</v>
       </c>
       <c r="Q3" s="14">
-        <f>AI3+(AJ3*(1/12))-O3</f>
+        <f t="shared" si="1"/>
         <v>69.159365642674942</v>
       </c>
       <c r="R3" s="14">
-        <f>AK3+(AL3*(1/12))-O3</f>
+        <f t="shared" si="2"/>
         <v>69.159365642674942</v>
       </c>
       <c r="S3" s="14">
-        <f t="shared" ref="S3:S14" si="4">AM3+(AN3*(1/12))</f>
+        <f t="shared" ref="S3:S14" si="10">AM3+(AN3*(1/12))</f>
         <v>-32</v>
       </c>
       <c r="T3" s="14">
-        <f t="shared" ref="T3:T14" si="5">AO3+(AP3*(1/12))</f>
+        <f t="shared" ref="T3:T14" si="11">AO3+(AP3*(1/12))</f>
         <v>0</v>
       </c>
       <c r="U3" s="15">
-        <f t="shared" ref="U3:U14" si="6">AQ3+(AR3*(1/12))</f>
+        <f t="shared" ref="U3:U14" si="12">AQ3+(AR3*(1/12))</f>
         <v>32</v>
       </c>
       <c r="V3" s="19">
@@ -4053,39 +4060,39 @@
         <v>96.5</v>
       </c>
       <c r="W3" s="20">
-        <f t="shared" ref="W3:W14" si="7">AV3+((1/12)*AW3)</f>
+        <f t="shared" ref="W3:W14" si="13">AV3+((1/12)*AW3)</f>
         <v>-21.5</v>
       </c>
       <c r="X3" s="20">
-        <f t="shared" ref="X3:X14" si="8">AX3+((1/12)*AY3)</f>
+        <f t="shared" ref="X3:X14" si="14">AX3+((1/12)*AY3)</f>
         <v>96.5</v>
       </c>
       <c r="Y3" s="21">
-        <f t="shared" ref="Y3:Y14" si="9">AZ3+((1/12)*BA3)</f>
+        <f t="shared" ref="Y3:Y14" si="15">AZ3+((1/12)*BA3)</f>
         <v>21.5</v>
       </c>
       <c r="Z3" s="25">
-        <f>BC3+(BD3*(1/12))-O3</f>
+        <f t="shared" si="3"/>
         <v>-10.840634357325053</v>
       </c>
       <c r="AA3" s="26">
-        <f>BE3+(BF3*(1/12))-O3</f>
+        <f t="shared" si="4"/>
         <v>-10.840634357325053</v>
       </c>
       <c r="AB3" s="26">
-        <f>BG3+(BH3*(1/12))-O3</f>
+        <f t="shared" si="5"/>
         <v>-10.840634357325053</v>
       </c>
       <c r="AC3" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AD3" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AE3" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AG3" s="13">
@@ -4231,71 +4238,71 @@
         <v>170</v>
       </c>
       <c r="O4">
+        <f t="shared" si="9"/>
+        <v>10.840634357325053</v>
+      </c>
+      <c r="P4" s="13">
+        <f t="shared" si="0"/>
+        <v>59.159365642674949</v>
+      </c>
+      <c r="Q4" s="14">
+        <f t="shared" si="1"/>
+        <v>59.159365642674949</v>
+      </c>
+      <c r="R4" s="14">
+        <f t="shared" si="2"/>
+        <v>59.159365642674949</v>
+      </c>
+      <c r="S4" s="14">
+        <f t="shared" si="10"/>
+        <v>-24.5</v>
+      </c>
+      <c r="T4" s="14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U4" s="15">
+        <f t="shared" si="12"/>
+        <v>24.5</v>
+      </c>
+      <c r="V4" s="19">
+        <f t="shared" ref="V4:V14" si="16">AT4+((1/12)*AU4)</f>
+        <v>87.5</v>
+      </c>
+      <c r="W4" s="20">
+        <f t="shared" si="13"/>
+        <v>-16.5</v>
+      </c>
+      <c r="X4" s="20">
+        <f t="shared" si="14"/>
+        <v>87.5</v>
+      </c>
+      <c r="Y4" s="21">
+        <f t="shared" si="15"/>
+        <v>16.5</v>
+      </c>
+      <c r="Z4" s="25">
         <f t="shared" si="3"/>
-        <v>10.840634357325053</v>
-      </c>
-      <c r="P4" s="13">
-        <f>AG4+(AH4*(1/12))-O4</f>
-        <v>59.159365642674949</v>
-      </c>
-      <c r="Q4" s="14">
-        <f>AI4+(AJ4*(1/12))-O4</f>
-        <v>59.159365642674949</v>
-      </c>
-      <c r="R4" s="14">
-        <f>AK4+(AL4*(1/12))-O4</f>
-        <v>59.159365642674949</v>
-      </c>
-      <c r="S4" s="14">
+        <v>-10.840634357325053</v>
+      </c>
+      <c r="AA4" s="26">
         <f t="shared" si="4"/>
-        <v>-24.5</v>
-      </c>
-      <c r="T4" s="14">
+        <v>-10.840634357325053</v>
+      </c>
+      <c r="AB4" s="26">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U4" s="15">
+        <v>-10.840634357325053</v>
+      </c>
+      <c r="AC4" s="26">
         <f t="shared" si="6"/>
-        <v>24.5</v>
-      </c>
-      <c r="V4" s="19">
-        <f t="shared" ref="V4:V14" si="10">AT4+((1/12)*AU4)</f>
-        <v>87.5</v>
-      </c>
-      <c r="W4" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="26">
         <f t="shared" si="7"/>
-        <v>-16.5</v>
-      </c>
-      <c r="X4" s="20">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="27">
         <f t="shared" si="8"/>
-        <v>87.5</v>
-      </c>
-      <c r="Y4" s="21">
-        <f t="shared" si="9"/>
-        <v>16.5</v>
-      </c>
-      <c r="Z4" s="25">
-        <f>BC4+(BD4*(1/12))-O4</f>
-        <v>-10.840634357325053</v>
-      </c>
-      <c r="AA4" s="26">
-        <f>BE4+(BF4*(1/12))-O4</f>
-        <v>-10.840634357325053</v>
-      </c>
-      <c r="AB4" s="26">
-        <f>BG4+(BH4*(1/12))-O4</f>
-        <v>-10.840634357325053</v>
-      </c>
-      <c r="AC4" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD4" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AE4" s="27">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG4" s="13">
@@ -4403,71 +4410,71 @@
         <v>170</v>
       </c>
       <c r="O5">
+        <f t="shared" si="9"/>
+        <v>10.840634357325053</v>
+      </c>
+      <c r="P5" s="13">
+        <f t="shared" si="0"/>
+        <v>44.159365642674949</v>
+      </c>
+      <c r="Q5" s="14">
+        <f t="shared" si="1"/>
+        <v>44.159365642674949</v>
+      </c>
+      <c r="R5" s="14">
+        <f t="shared" si="2"/>
+        <v>44.159365642674949</v>
+      </c>
+      <c r="S5" s="14">
+        <f t="shared" si="10"/>
+        <v>-22.666666666666668</v>
+      </c>
+      <c r="T5" s="14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U5" s="15">
+        <f t="shared" si="12"/>
+        <v>22.666666666666668</v>
+      </c>
+      <c r="V5" s="19">
+        <f t="shared" si="16"/>
+        <v>73</v>
+      </c>
+      <c r="W5" s="20">
+        <f t="shared" si="13"/>
+        <v>-18.583333333333332</v>
+      </c>
+      <c r="X5" s="20">
+        <f t="shared" si="14"/>
+        <v>73</v>
+      </c>
+      <c r="Y5" s="21">
+        <f t="shared" si="15"/>
+        <v>18.583333333333332</v>
+      </c>
+      <c r="Z5" s="25">
         <f t="shared" si="3"/>
-        <v>10.840634357325053</v>
-      </c>
-      <c r="P5" s="13">
-        <f>AG5+(AH5*(1/12))-O5</f>
-        <v>44.159365642674949</v>
-      </c>
-      <c r="Q5" s="14">
-        <f>AI5+(AJ5*(1/12))-O5</f>
-        <v>44.159365642674949</v>
-      </c>
-      <c r="R5" s="14">
-        <f>AK5+(AL5*(1/12))-O5</f>
-        <v>44.159365642674949</v>
-      </c>
-      <c r="S5" s="14">
+        <v>-10.840634357325053</v>
+      </c>
+      <c r="AA5" s="26">
         <f t="shared" si="4"/>
-        <v>-22.666666666666668</v>
-      </c>
-      <c r="T5" s="14">
+        <v>-10.840634357325053</v>
+      </c>
+      <c r="AB5" s="26">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U5" s="15">
+        <v>-10.840634357325053</v>
+      </c>
+      <c r="AC5" s="26">
         <f t="shared" si="6"/>
-        <v>22.666666666666668</v>
-      </c>
-      <c r="V5" s="19">
-        <f t="shared" si="10"/>
-        <v>73</v>
-      </c>
-      <c r="W5" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="26">
         <f t="shared" si="7"/>
-        <v>-18.583333333333332</v>
-      </c>
-      <c r="X5" s="20">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="27">
         <f t="shared" si="8"/>
-        <v>73</v>
-      </c>
-      <c r="Y5" s="21">
-        <f t="shared" si="9"/>
-        <v>18.583333333333332</v>
-      </c>
-      <c r="Z5" s="25">
-        <f>BC5+(BD5*(1/12))-O5</f>
-        <v>-10.840634357325053</v>
-      </c>
-      <c r="AA5" s="26">
-        <f>BE5+(BF5*(1/12))-O5</f>
-        <v>-10.840634357325053</v>
-      </c>
-      <c r="AB5" s="26">
-        <f>BG5+(BH5*(1/12))-O5</f>
-        <v>-10.840634357325053</v>
-      </c>
-      <c r="AC5" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD5" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AE5" s="27">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG5" s="13">
@@ -4577,71 +4584,71 @@
         <v>170</v>
       </c>
       <c r="O6">
+        <f t="shared" si="9"/>
+        <v>10.840634357325053</v>
+      </c>
+      <c r="P6" s="13">
+        <f t="shared" si="0"/>
+        <v>79.159365642674942</v>
+      </c>
+      <c r="Q6" s="14">
+        <f t="shared" si="1"/>
+        <v>79.159365642674942</v>
+      </c>
+      <c r="R6" s="14">
+        <f t="shared" si="2"/>
+        <v>79.159365642674942</v>
+      </c>
+      <c r="S6" s="14">
+        <f t="shared" si="10"/>
+        <v>-24</v>
+      </c>
+      <c r="T6" s="14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="15">
+        <f t="shared" si="12"/>
+        <v>24</v>
+      </c>
+      <c r="V6" s="19">
+        <f t="shared" si="16"/>
+        <v>102</v>
+      </c>
+      <c r="W6" s="20">
+        <f t="shared" si="13"/>
+        <v>-21.6</v>
+      </c>
+      <c r="X6" s="20">
+        <f t="shared" si="14"/>
+        <v>102</v>
+      </c>
+      <c r="Y6" s="21">
+        <f t="shared" si="15"/>
+        <v>21.6</v>
+      </c>
+      <c r="Z6" s="25">
         <f t="shared" si="3"/>
-        <v>10.840634357325053</v>
-      </c>
-      <c r="P6" s="13">
-        <f>AG6+(AH6*(1/12))-O6</f>
-        <v>79.159365642674942</v>
-      </c>
-      <c r="Q6" s="14">
-        <f>AI6+(AJ6*(1/12))-O6</f>
-        <v>79.159365642674942</v>
-      </c>
-      <c r="R6" s="14">
-        <f>AK6+(AL6*(1/12))-O6</f>
-        <v>79.159365642674942</v>
-      </c>
-      <c r="S6" s="14">
+        <v>-10.840634357325053</v>
+      </c>
+      <c r="AA6" s="26">
         <f t="shared" si="4"/>
-        <v>-24</v>
-      </c>
-      <c r="T6" s="14">
+        <v>-10.840634357325053</v>
+      </c>
+      <c r="AB6" s="26">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U6" s="15">
+        <v>-10.840634357325053</v>
+      </c>
+      <c r="AC6" s="26">
         <f t="shared" si="6"/>
-        <v>24</v>
-      </c>
-      <c r="V6" s="19">
-        <f t="shared" si="10"/>
-        <v>102</v>
-      </c>
-      <c r="W6" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="26">
         <f t="shared" si="7"/>
-        <v>-21.6</v>
-      </c>
-      <c r="X6" s="20">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="27">
         <f t="shared" si="8"/>
-        <v>102</v>
-      </c>
-      <c r="Y6" s="21">
-        <f t="shared" si="9"/>
-        <v>21.6</v>
-      </c>
-      <c r="Z6" s="25">
-        <f>BC6+(BD6*(1/12))-O6</f>
-        <v>-10.840634357325053</v>
-      </c>
-      <c r="AA6" s="26">
-        <f>BE6+(BF6*(1/12))-O6</f>
-        <v>-10.840634357325053</v>
-      </c>
-      <c r="AB6" s="26">
-        <f>BG6+(BH6*(1/12))-O6</f>
-        <v>-10.840634357325053</v>
-      </c>
-      <c r="AC6" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD6" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AE6" s="27">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG6" s="13">
@@ -4753,67 +4760,67 @@
         <v>170</v>
       </c>
       <c r="O7">
+        <f t="shared" si="9"/>
+        <v>10.840634357325053</v>
+      </c>
+      <c r="P7" s="13">
+        <f t="shared" si="0"/>
+        <v>43.659365642674949</v>
+      </c>
+      <c r="Q7" s="14">
+        <f t="shared" si="1"/>
+        <v>43.659365642674949</v>
+      </c>
+      <c r="R7" s="14">
+        <f t="shared" si="2"/>
+        <v>43.659365642674949</v>
+      </c>
+      <c r="S7" s="14">
+        <f t="shared" si="10"/>
+        <v>-23</v>
+      </c>
+      <c r="T7" s="14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="15">
+        <f t="shared" si="12"/>
+        <v>23</v>
+      </c>
+      <c r="V7" s="19">
+        <f t="shared" si="16"/>
+        <v>94.5</v>
+      </c>
+      <c r="W7" s="20">
+        <f t="shared" si="13"/>
+        <v>-20.5</v>
+      </c>
+      <c r="X7" s="20">
+        <f t="shared" si="14"/>
+        <v>94.5</v>
+      </c>
+      <c r="Y7" s="21">
+        <f t="shared" si="15"/>
+        <v>20.5</v>
+      </c>
+      <c r="Z7" s="25">
         <f t="shared" si="3"/>
-        <v>10.840634357325053</v>
-      </c>
-      <c r="P7" s="13">
-        <f>AG7+(AH7*(1/12))-O7</f>
-        <v>43.659365642674949</v>
-      </c>
-      <c r="Q7" s="14">
-        <f>AI7+(AJ7*(1/12))-O7</f>
-        <v>43.659365642674949</v>
-      </c>
-      <c r="R7" s="14">
-        <f>AK7+(AL7*(1/12))-O7</f>
-        <v>43.659365642674949</v>
-      </c>
-      <c r="S7" s="14">
+        <v>72.159365642674942</v>
+      </c>
+      <c r="AA7" s="26">
         <f t="shared" si="4"/>
-        <v>-23</v>
-      </c>
-      <c r="T7" s="14">
+        <v>72.159365642674942</v>
+      </c>
+      <c r="AB7" s="26">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U7" s="15">
-        <f t="shared" si="6"/>
+        <v>72.159365642674942</v>
+      </c>
+      <c r="AC7" s="26">
+        <f t="shared" ref="AC7" si="17">BI7+(BJ7*(1/12))</f>
         <v>23</v>
       </c>
-      <c r="V7" s="19">
-        <f t="shared" si="10"/>
-        <v>94.5</v>
-      </c>
-      <c r="W7" s="20">
-        <f t="shared" si="7"/>
-        <v>-20.5</v>
-      </c>
-      <c r="X7" s="20">
-        <f t="shared" si="8"/>
-        <v>94.5</v>
-      </c>
-      <c r="Y7" s="21">
-        <f t="shared" si="9"/>
-        <v>20.5</v>
-      </c>
-      <c r="Z7" s="25">
-        <f>BC7+(BD7*(1/12))-O7</f>
-        <v>72.159365642674942</v>
-      </c>
-      <c r="AA7" s="26">
-        <f>BE7+(BF7*(1/12))-O7</f>
-        <v>72.159365642674942</v>
-      </c>
-      <c r="AB7" s="26">
-        <f>BG7+(BH7*(1/12))-O7</f>
-        <v>72.159365642674942</v>
-      </c>
-      <c r="AC7" s="26">
-        <f t="shared" ref="AC7" si="11">BI7+(BJ7*(1/12))</f>
-        <v>23</v>
-      </c>
       <c r="AD7" s="26">
-        <f t="shared" ref="AD7" si="12">BK7+(BL7*(1/12))</f>
+        <f t="shared" ref="AD7" si="18">BK7+(BL7*(1/12))</f>
         <v>0</v>
       </c>
       <c r="AE7" s="27">
@@ -4971,71 +4978,71 @@
         <v>170</v>
       </c>
       <c r="O8">
+        <f t="shared" si="9"/>
+        <v>10.840634357325053</v>
+      </c>
+      <c r="P8" s="13">
+        <f t="shared" si="0"/>
+        <v>41.826032309341613</v>
+      </c>
+      <c r="Q8" s="14">
+        <f t="shared" si="1"/>
+        <v>64.826032309341613</v>
+      </c>
+      <c r="R8" s="14">
+        <f t="shared" si="2"/>
+        <v>87.826032309341613</v>
+      </c>
+      <c r="S8" s="14">
+        <f t="shared" si="10"/>
+        <v>-19</v>
+      </c>
+      <c r="T8" s="14">
+        <f t="shared" si="11"/>
+        <v>-17.5</v>
+      </c>
+      <c r="U8" s="15">
+        <f t="shared" si="12"/>
+        <v>-15.333333333333334</v>
+      </c>
+      <c r="V8" s="19">
+        <f t="shared" si="16"/>
+        <v>104.66666666666667</v>
+      </c>
+      <c r="W8" s="20">
+        <f t="shared" si="13"/>
+        <v>-12</v>
+      </c>
+      <c r="X8" s="20">
+        <f t="shared" si="14"/>
+        <v>104.66666666666667</v>
+      </c>
+      <c r="Y8" s="21">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="Z8" s="25">
         <f t="shared" si="3"/>
-        <v>10.840634357325053</v>
-      </c>
-      <c r="P8" s="13">
-        <f>AG8+(AH8*(1/12))-O8</f>
+        <v>87.826032309341613</v>
+      </c>
+      <c r="AA8" s="26">
+        <f t="shared" si="4"/>
+        <v>64.826032309341613</v>
+      </c>
+      <c r="AB8" s="26">
+        <f t="shared" si="5"/>
         <v>41.826032309341613</v>
       </c>
-      <c r="Q8" s="14">
-        <f>AI8+(AJ8*(1/12))-O8</f>
-        <v>64.826032309341613</v>
-      </c>
-      <c r="R8" s="14">
-        <f>AK8+(AL8*(1/12))-O8</f>
-        <v>87.826032309341613</v>
-      </c>
-      <c r="S8" s="14">
-        <f t="shared" si="4"/>
-        <v>-19</v>
-      </c>
-      <c r="T8" s="14">
-        <f t="shared" si="5"/>
-        <v>-17.5</v>
-      </c>
-      <c r="U8" s="15">
-        <f t="shared" si="6"/>
-        <v>-15.333333333333334</v>
-      </c>
-      <c r="V8" s="19">
-        <f t="shared" si="10"/>
-        <v>104.66666666666667</v>
-      </c>
-      <c r="W8" s="20">
-        <f t="shared" si="7"/>
-        <v>-12</v>
-      </c>
-      <c r="X8" s="20">
-        <f t="shared" si="8"/>
-        <v>104.66666666666667</v>
-      </c>
-      <c r="Y8" s="21">
-        <f t="shared" si="9"/>
-        <v>12</v>
-      </c>
-      <c r="Z8" s="25">
-        <f>BC8+(BD8*(1/12))-O8</f>
-        <v>87.826032309341613</v>
-      </c>
-      <c r="AA8" s="26">
-        <f>BE8+(BF8*(1/12))-O8</f>
-        <v>64.826032309341613</v>
-      </c>
-      <c r="AB8" s="26">
-        <f>BG8+(BH8*(1/12))-O8</f>
-        <v>41.826032309341613</v>
-      </c>
       <c r="AC8" s="26">
-        <f t="shared" ref="AC8:AC14" si="13">BI8+(BJ8*(1/12))</f>
+        <f t="shared" ref="AC8:AC14" si="19">BI8+(BJ8*(1/12))</f>
         <v>15.333333333333334</v>
       </c>
       <c r="AD8" s="26">
-        <f t="shared" ref="AD8:AD14" si="14">BK8+(BL8*(1/12))</f>
+        <f t="shared" ref="AD8:AD14" si="20">BK8+(BL8*(1/12))</f>
         <v>17.5</v>
       </c>
       <c r="AE8" s="27">
-        <f t="shared" ref="AE8:AE14" si="15">BM8+(BN8*(1/12))</f>
+        <f t="shared" ref="AE8:AE14" si="21">BM8+(BN8*(1/12))</f>
         <v>19</v>
       </c>
       <c r="AG8" s="13">
@@ -5185,71 +5192,71 @@
         <v>170</v>
       </c>
       <c r="O9">
+        <f t="shared" si="9"/>
+        <v>10.840634357325053</v>
+      </c>
+      <c r="P9" s="13">
+        <f t="shared" si="0"/>
+        <v>69.159365642674942</v>
+      </c>
+      <c r="Q9" s="14">
+        <f t="shared" si="1"/>
+        <v>93.159365642674942</v>
+      </c>
+      <c r="R9" s="14">
+        <f t="shared" si="2"/>
+        <v>117.15936564267494</v>
+      </c>
+      <c r="S9" s="14">
+        <f t="shared" si="10"/>
+        <v>-22</v>
+      </c>
+      <c r="T9" s="14">
+        <f t="shared" si="11"/>
+        <v>-37</v>
+      </c>
+      <c r="U9" s="15">
+        <f t="shared" si="12"/>
+        <v>-22</v>
+      </c>
+      <c r="V9" s="19">
+        <f t="shared" si="16"/>
+        <v>142</v>
+      </c>
+      <c r="W9" s="20">
+        <f t="shared" si="13"/>
+        <v>-11</v>
+      </c>
+      <c r="X9" s="20">
+        <f t="shared" si="14"/>
+        <v>142</v>
+      </c>
+      <c r="Y9" s="21">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="Z9" s="25">
         <f t="shared" si="3"/>
-        <v>10.840634357325053</v>
-      </c>
-      <c r="P9" s="13">
-        <f>AG9+(AH9*(1/12))-O9</f>
+        <v>117.15936564267494</v>
+      </c>
+      <c r="AA9" s="26">
+        <f t="shared" si="4"/>
+        <v>93.159365642674942</v>
+      </c>
+      <c r="AB9" s="26">
+        <f t="shared" si="5"/>
         <v>69.159365642674942</v>
       </c>
-      <c r="Q9" s="14">
-        <f>AI9+(AJ9*(1/12))-O9</f>
-        <v>93.159365642674942</v>
-      </c>
-      <c r="R9" s="14">
-        <f>AK9+(AL9*(1/12))-O9</f>
-        <v>117.15936564267494</v>
-      </c>
-      <c r="S9" s="14">
-        <f t="shared" si="4"/>
-        <v>-22</v>
-      </c>
-      <c r="T9" s="14">
-        <f t="shared" si="5"/>
-        <v>-37</v>
-      </c>
-      <c r="U9" s="15">
-        <f t="shared" si="6"/>
-        <v>-22</v>
-      </c>
-      <c r="V9" s="19">
-        <f t="shared" si="10"/>
-        <v>142</v>
-      </c>
-      <c r="W9" s="20">
-        <f t="shared" si="7"/>
-        <v>-11</v>
-      </c>
-      <c r="X9" s="20">
-        <f t="shared" si="8"/>
-        <v>142</v>
-      </c>
-      <c r="Y9" s="21">
-        <f t="shared" si="9"/>
-        <v>11</v>
-      </c>
-      <c r="Z9" s="25">
-        <f>BC9+(BD9*(1/12))-O9</f>
-        <v>117.15936564267494</v>
-      </c>
-      <c r="AA9" s="26">
-        <f>BE9+(BF9*(1/12))-O9</f>
-        <v>93.159365642674942</v>
-      </c>
-      <c r="AB9" s="26">
-        <f>BG9+(BH9*(1/12))-O9</f>
-        <v>69.159365642674942</v>
-      </c>
       <c r="AC9" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>22</v>
       </c>
       <c r="AD9" s="26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>37</v>
       </c>
       <c r="AE9" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>22</v>
       </c>
       <c r="AG9" s="13">
@@ -5400,71 +5407,71 @@
         <v>170</v>
       </c>
       <c r="O10">
+        <f t="shared" si="9"/>
+        <v>10.840634357325053</v>
+      </c>
+      <c r="P10" s="13">
+        <f t="shared" si="0"/>
+        <v>69.159365642674942</v>
+      </c>
+      <c r="Q10" s="14">
+        <f t="shared" si="1"/>
+        <v>89.159365642674942</v>
+      </c>
+      <c r="R10" s="14">
+        <f t="shared" si="2"/>
+        <v>111.15936564267494</v>
+      </c>
+      <c r="S10" s="14">
+        <f t="shared" si="10"/>
+        <v>-18</v>
+      </c>
+      <c r="T10" s="14">
+        <f t="shared" si="11"/>
+        <v>-29</v>
+      </c>
+      <c r="U10" s="15">
+        <f t="shared" si="12"/>
+        <v>-17</v>
+      </c>
+      <c r="V10" s="19">
+        <f t="shared" si="16"/>
+        <v>137</v>
+      </c>
+      <c r="W10" s="20">
+        <f t="shared" si="13"/>
+        <v>-24</v>
+      </c>
+      <c r="X10" s="20">
+        <f t="shared" si="14"/>
+        <v>137</v>
+      </c>
+      <c r="Y10" s="21">
+        <f t="shared" si="15"/>
+        <v>24</v>
+      </c>
+      <c r="Z10" s="25">
         <f t="shared" si="3"/>
-        <v>10.840634357325053</v>
-      </c>
-      <c r="P10" s="13">
-        <f>AG10+(AH10*(1/12))-O10</f>
+        <v>111.15936564267494</v>
+      </c>
+      <c r="AA10" s="26">
+        <f t="shared" si="4"/>
+        <v>89.159365642674942</v>
+      </c>
+      <c r="AB10" s="26">
+        <f t="shared" si="5"/>
         <v>69.159365642674942</v>
       </c>
-      <c r="Q10" s="14">
-        <f>AI10+(AJ10*(1/12))-O10</f>
-        <v>89.159365642674942</v>
-      </c>
-      <c r="R10" s="14">
-        <f>AK10+(AL10*(1/12))-O10</f>
-        <v>111.15936564267494</v>
-      </c>
-      <c r="S10" s="14">
-        <f t="shared" si="4"/>
-        <v>-18</v>
-      </c>
-      <c r="T10" s="14">
-        <f t="shared" si="5"/>
-        <v>-29</v>
-      </c>
-      <c r="U10" s="15">
-        <f t="shared" si="6"/>
-        <v>-17</v>
-      </c>
-      <c r="V10" s="19">
-        <f t="shared" si="10"/>
-        <v>137</v>
-      </c>
-      <c r="W10" s="20">
-        <f t="shared" si="7"/>
-        <v>-24</v>
-      </c>
-      <c r="X10" s="20">
-        <f t="shared" si="8"/>
-        <v>137</v>
-      </c>
-      <c r="Y10" s="21">
-        <f t="shared" si="9"/>
-        <v>24</v>
-      </c>
-      <c r="Z10" s="25">
-        <f>BC10+(BD10*(1/12))-O10</f>
-        <v>111.15936564267494</v>
-      </c>
-      <c r="AA10" s="26">
-        <f>BE10+(BF10*(1/12))-O10</f>
-        <v>89.159365642674942</v>
-      </c>
-      <c r="AB10" s="26">
-        <f>BG10+(BH10*(1/12))-O10</f>
-        <v>69.159365642674942</v>
-      </c>
       <c r="AC10" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>17</v>
       </c>
       <c r="AD10" s="26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>29</v>
       </c>
       <c r="AE10" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>18</v>
       </c>
       <c r="AG10" s="13">
@@ -5614,71 +5621,71 @@
         <v>170</v>
       </c>
       <c r="O11">
+        <f t="shared" si="9"/>
+        <v>10.840634357325053</v>
+      </c>
+      <c r="P11" s="13">
+        <f t="shared" si="0"/>
+        <v>53.159365642674949</v>
+      </c>
+      <c r="Q11" s="14">
+        <f t="shared" si="1"/>
+        <v>74.659365642674942</v>
+      </c>
+      <c r="R11" s="14">
+        <f t="shared" si="2"/>
+        <v>98.659365642674942</v>
+      </c>
+      <c r="S11" s="14">
+        <f t="shared" si="10"/>
+        <v>-20.5</v>
+      </c>
+      <c r="T11" s="14">
+        <f t="shared" si="11"/>
+        <v>-27</v>
+      </c>
+      <c r="U11" s="15">
+        <f t="shared" si="12"/>
+        <v>-18.5</v>
+      </c>
+      <c r="V11" s="19">
+        <f t="shared" si="16"/>
+        <v>119.5</v>
+      </c>
+      <c r="W11" s="20">
+        <f t="shared" si="13"/>
+        <v>-25.75</v>
+      </c>
+      <c r="X11" s="20">
+        <f t="shared" si="14"/>
+        <v>119.5</v>
+      </c>
+      <c r="Y11" s="21">
+        <f t="shared" si="15"/>
+        <v>25.75</v>
+      </c>
+      <c r="Z11" s="25">
         <f t="shared" si="3"/>
-        <v>10.840634357325053</v>
-      </c>
-      <c r="P11" s="13">
-        <f>AG11+(AH11*(1/12))-O11</f>
+        <v>98.659365642674942</v>
+      </c>
+      <c r="AA11" s="26">
+        <f t="shared" si="4"/>
+        <v>74.659365642674942</v>
+      </c>
+      <c r="AB11" s="26">
+        <f t="shared" si="5"/>
         <v>53.159365642674949</v>
       </c>
-      <c r="Q11" s="14">
-        <f>AI11+(AJ11*(1/12))-O11</f>
-        <v>74.659365642674942</v>
-      </c>
-      <c r="R11" s="14">
-        <f>AK11+(AL11*(1/12))-O11</f>
-        <v>98.659365642674942</v>
-      </c>
-      <c r="S11" s="14">
-        <f t="shared" si="4"/>
-        <v>-20.5</v>
-      </c>
-      <c r="T11" s="14">
-        <f t="shared" si="5"/>
-        <v>-27</v>
-      </c>
-      <c r="U11" s="15">
-        <f t="shared" si="6"/>
-        <v>-18.5</v>
-      </c>
-      <c r="V11" s="19">
-        <f t="shared" si="10"/>
-        <v>119.5</v>
-      </c>
-      <c r="W11" s="20">
-        <f t="shared" si="7"/>
-        <v>-25.75</v>
-      </c>
-      <c r="X11" s="20">
-        <f t="shared" si="8"/>
-        <v>119.5</v>
-      </c>
-      <c r="Y11" s="21">
-        <f t="shared" si="9"/>
-        <v>25.75</v>
-      </c>
-      <c r="Z11" s="25">
-        <f>BC11+(BD11*(1/12))-O11</f>
-        <v>98.659365642674942</v>
-      </c>
-      <c r="AA11" s="26">
-        <f>BE11+(BF11*(1/12))-O11</f>
-        <v>74.659365642674942</v>
-      </c>
-      <c r="AB11" s="26">
-        <f>BG11+(BH11*(1/12))-O11</f>
-        <v>53.159365642674949</v>
-      </c>
       <c r="AC11" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>18.5</v>
       </c>
       <c r="AD11" s="26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>27</v>
       </c>
       <c r="AE11" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>20.5</v>
       </c>
       <c r="AG11" s="13">
@@ -5828,71 +5835,71 @@
         <v>170</v>
       </c>
       <c r="O12">
+        <f t="shared" si="9"/>
+        <v>10.840634357325053</v>
+      </c>
+      <c r="P12" s="13">
+        <f t="shared" si="0"/>
+        <v>91.159365642674942</v>
+      </c>
+      <c r="Q12" s="14">
+        <f t="shared" si="1"/>
+        <v>65.159365642674942</v>
+      </c>
+      <c r="R12" s="14">
+        <f t="shared" si="2"/>
+        <v>65.159365642674942</v>
+      </c>
+      <c r="S12" s="14">
+        <f t="shared" si="10"/>
+        <v>-17.666666666666668</v>
+      </c>
+      <c r="T12" s="14">
+        <f t="shared" si="11"/>
+        <v>-37</v>
+      </c>
+      <c r="U12" s="15">
+        <f t="shared" si="12"/>
+        <v>-17</v>
+      </c>
+      <c r="V12" s="19">
+        <f t="shared" si="16"/>
+        <v>109</v>
+      </c>
+      <c r="W12" s="20">
+        <f t="shared" si="13"/>
+        <v>-23.333333333333332</v>
+      </c>
+      <c r="X12" s="20">
+        <f t="shared" si="14"/>
+        <v>109</v>
+      </c>
+      <c r="Y12" s="21">
+        <f t="shared" si="15"/>
+        <v>23.333333333333332</v>
+      </c>
+      <c r="Z12" s="25">
         <f t="shared" si="3"/>
-        <v>10.840634357325053</v>
-      </c>
-      <c r="P12" s="13">
-        <f>AG12+(AH12*(1/12))-O12</f>
         <v>91.159365642674942</v>
       </c>
-      <c r="Q12" s="14">
-        <f>AI12+(AJ12*(1/12))-O12</f>
+      <c r="AA12" s="26">
+        <f t="shared" si="4"/>
         <v>65.159365642674942</v>
       </c>
-      <c r="R12" s="14">
-        <f>AK12+(AL12*(1/12))-O12</f>
+      <c r="AB12" s="26">
+        <f t="shared" si="5"/>
         <v>65.159365642674942</v>
       </c>
-      <c r="S12" s="14">
-        <f t="shared" si="4"/>
-        <v>-17.666666666666668</v>
-      </c>
-      <c r="T12" s="14">
-        <f t="shared" si="5"/>
-        <v>-37</v>
-      </c>
-      <c r="U12" s="15">
-        <f t="shared" si="6"/>
-        <v>-17</v>
-      </c>
-      <c r="V12" s="19">
-        <f t="shared" si="10"/>
-        <v>109</v>
-      </c>
-      <c r="W12" s="20">
-        <f t="shared" si="7"/>
-        <v>-23.333333333333332</v>
-      </c>
-      <c r="X12" s="20">
-        <f t="shared" si="8"/>
-        <v>109</v>
-      </c>
-      <c r="Y12" s="21">
-        <f t="shared" si="9"/>
-        <v>23.333333333333332</v>
-      </c>
-      <c r="Z12" s="25">
-        <f>BC12+(BD12*(1/12))-O12</f>
-        <v>91.159365642674942</v>
-      </c>
-      <c r="AA12" s="26">
-        <f>BE12+(BF12*(1/12))-O12</f>
-        <v>65.159365642674942</v>
-      </c>
-      <c r="AB12" s="26">
-        <f>BG12+(BH12*(1/12))-O12</f>
-        <v>65.159365642674942</v>
-      </c>
       <c r="AC12" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>17.666666666666668</v>
       </c>
       <c r="AD12" s="26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>17</v>
       </c>
       <c r="AE12" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>37</v>
       </c>
       <c r="AG12" s="13">
@@ -6042,71 +6049,71 @@
         <v>170</v>
       </c>
       <c r="O13">
+        <f t="shared" si="9"/>
+        <v>10.840634357325053</v>
+      </c>
+      <c r="P13" s="13">
+        <f t="shared" si="0"/>
+        <v>77.159365642674942</v>
+      </c>
+      <c r="Q13" s="14">
+        <f t="shared" si="1"/>
+        <v>52.159365642674949</v>
+      </c>
+      <c r="R13" s="14">
+        <f t="shared" si="2"/>
+        <v>52.159365642674949</v>
+      </c>
+      <c r="S13" s="14">
+        <f t="shared" si="10"/>
+        <v>-25.583333333333332</v>
+      </c>
+      <c r="T13" s="14">
+        <f t="shared" si="11"/>
+        <v>-37.833333333333336</v>
+      </c>
+      <c r="U13" s="15">
+        <f t="shared" si="12"/>
+        <v>-14.333333333333334</v>
+      </c>
+      <c r="V13" s="19">
+        <f t="shared" si="16"/>
+        <v>103</v>
+      </c>
+      <c r="W13" s="20">
+        <f t="shared" si="13"/>
+        <v>-15.666666666666666</v>
+      </c>
+      <c r="X13" s="20">
+        <f t="shared" si="14"/>
+        <v>103</v>
+      </c>
+      <c r="Y13" s="21">
+        <f t="shared" si="15"/>
+        <v>15.666666666666666</v>
+      </c>
+      <c r="Z13" s="25">
         <f t="shared" si="3"/>
-        <v>10.840634357325053</v>
-      </c>
-      <c r="P13" s="13">
-        <f>AG13+(AH13*(1/12))-O13</f>
         <v>77.159365642674942</v>
       </c>
-      <c r="Q13" s="14">
-        <f>AI13+(AJ13*(1/12))-O13</f>
+      <c r="AA13" s="26">
+        <f t="shared" si="4"/>
         <v>52.159365642674949</v>
       </c>
-      <c r="R13" s="14">
-        <f>AK13+(AL13*(1/12))-O13</f>
+      <c r="AB13" s="26">
+        <f t="shared" si="5"/>
         <v>52.159365642674949</v>
       </c>
-      <c r="S13" s="14">
-        <f t="shared" si="4"/>
-        <v>-25.583333333333332</v>
-      </c>
-      <c r="T13" s="14">
-        <f t="shared" si="5"/>
-        <v>-37.833333333333336</v>
-      </c>
-      <c r="U13" s="15">
-        <f t="shared" si="6"/>
-        <v>-14.333333333333334</v>
-      </c>
-      <c r="V13" s="19">
-        <f t="shared" si="10"/>
-        <v>103</v>
-      </c>
-      <c r="W13" s="20">
-        <f t="shared" si="7"/>
-        <v>-15.666666666666666</v>
-      </c>
-      <c r="X13" s="20">
-        <f t="shared" si="8"/>
-        <v>103</v>
-      </c>
-      <c r="Y13" s="21">
-        <f t="shared" si="9"/>
-        <v>15.666666666666666</v>
-      </c>
-      <c r="Z13" s="25">
-        <f>BC13+(BD13*(1/12))-O13</f>
-        <v>77.159365642674942</v>
-      </c>
-      <c r="AA13" s="26">
-        <f>BE13+(BF13*(1/12))-O13</f>
-        <v>52.159365642674949</v>
-      </c>
-      <c r="AB13" s="26">
-        <f>BG13+(BH13*(1/12))-O13</f>
-        <v>52.159365642674949</v>
-      </c>
       <c r="AC13" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>25.583333333333332</v>
       </c>
       <c r="AD13" s="26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>14.333333333333334</v>
       </c>
       <c r="AE13" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>37.833333333333336</v>
       </c>
       <c r="AG13" s="13">
@@ -6258,71 +6265,71 @@
         <v>170</v>
       </c>
       <c r="O14">
+        <f t="shared" si="9"/>
+        <v>10.840634357325053</v>
+      </c>
+      <c r="P14" s="13">
+        <f t="shared" si="0"/>
+        <v>97.159365642674942</v>
+      </c>
+      <c r="Q14" s="14">
+        <f t="shared" si="1"/>
+        <v>54.159365642674949</v>
+      </c>
+      <c r="R14" s="14">
+        <f t="shared" si="2"/>
+        <v>54.159365642674949</v>
+      </c>
+      <c r="S14" s="14">
+        <f t="shared" si="10"/>
+        <v>-28.5</v>
+      </c>
+      <c r="T14" s="14">
+        <f t="shared" si="11"/>
+        <v>-40.5</v>
+      </c>
+      <c r="U14" s="15">
+        <f t="shared" si="12"/>
+        <v>-16.5</v>
+      </c>
+      <c r="V14" s="19">
+        <f t="shared" si="16"/>
+        <v>117</v>
+      </c>
+      <c r="W14" s="20">
+        <f t="shared" si="13"/>
+        <v>-40.5</v>
+      </c>
+      <c r="X14" s="20">
+        <f t="shared" si="14"/>
+        <v>117</v>
+      </c>
+      <c r="Y14" s="21">
+        <f t="shared" si="15"/>
+        <v>40.5</v>
+      </c>
+      <c r="Z14" s="25">
         <f t="shared" si="3"/>
-        <v>10.840634357325053</v>
-      </c>
-      <c r="P14" s="13">
-        <f>AG14+(AH14*(1/12))-O14</f>
         <v>97.159365642674942</v>
       </c>
-      <c r="Q14" s="14">
-        <f>AI14+(AJ14*(1/12))-O14</f>
+      <c r="AA14" s="26">
+        <f t="shared" si="4"/>
         <v>54.159365642674949</v>
       </c>
-      <c r="R14" s="14">
-        <f>AK14+(AL14*(1/12))-O14</f>
+      <c r="AB14" s="26">
+        <f t="shared" si="5"/>
         <v>54.159365642674949</v>
       </c>
-      <c r="S14" s="14">
-        <f t="shared" si="4"/>
-        <v>-28.5</v>
-      </c>
-      <c r="T14" s="14">
-        <f t="shared" si="5"/>
-        <v>-40.5</v>
-      </c>
-      <c r="U14" s="15">
-        <f t="shared" si="6"/>
-        <v>-16.5</v>
-      </c>
-      <c r="V14" s="19">
-        <f t="shared" si="10"/>
-        <v>117</v>
-      </c>
-      <c r="W14" s="20">
-        <f t="shared" si="7"/>
-        <v>-40.5</v>
-      </c>
-      <c r="X14" s="20">
-        <f t="shared" si="8"/>
-        <v>117</v>
-      </c>
-      <c r="Y14" s="21">
-        <f t="shared" si="9"/>
-        <v>40.5</v>
-      </c>
-      <c r="Z14" s="25">
-        <f>BC14+(BD14*(1/12))-O14</f>
-        <v>97.159365642674942</v>
-      </c>
-      <c r="AA14" s="26">
-        <f>BE14+(BF14*(1/12))-O14</f>
-        <v>54.159365642674949</v>
-      </c>
-      <c r="AB14" s="26">
-        <f>BG14+(BH14*(1/12))-O14</f>
-        <v>54.159365642674949</v>
-      </c>
       <c r="AC14" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>69</v>
       </c>
       <c r="AD14" s="26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>16.5</v>
       </c>
       <c r="AE14" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>81</v>
       </c>
       <c r="AG14" s="13">
@@ -6481,67 +6488,67 @@
         <v>10.840634357325053</v>
       </c>
       <c r="P15" s="13">
-        <f>AG15+(AH15*(1/12))-O15</f>
+        <f t="shared" si="0"/>
         <v>64.159365642674942</v>
       </c>
       <c r="Q15" s="14">
-        <f>AI15+(AJ15*(1/12))-O15</f>
+        <f t="shared" si="1"/>
         <v>75.659365642674942</v>
       </c>
       <c r="R15" s="14">
-        <f>AK15+(AL15*(1/12))-O15</f>
+        <f t="shared" si="2"/>
         <v>87.159365642674942</v>
       </c>
       <c r="S15" s="14">
-        <f t="shared" ref="S15:S22" si="16">AM15+(AN15*(1/12))</f>
+        <f t="shared" ref="S15:S22" si="22">AM15+(AN15*(1/12))</f>
         <v>9</v>
       </c>
       <c r="T15" s="14">
-        <f t="shared" ref="T15:T22" si="17">AO15+(AP15*(1/12))</f>
+        <f t="shared" ref="T15:T22" si="23">AO15+(AP15*(1/12))</f>
         <v>-9</v>
       </c>
       <c r="U15" s="15">
-        <f t="shared" ref="U15:U22" si="18">AQ15+(AR15*(1/12))</f>
+        <f t="shared" ref="U15:U22" si="24">AQ15+(AR15*(1/12))</f>
         <v>9</v>
       </c>
       <c r="V15" s="19">
-        <f t="shared" ref="V15:V22" si="19">AT15+((1/12)*AU15)</f>
+        <f t="shared" ref="V15:V22" si="25">AT15+((1/12)*AU15)</f>
         <v>131.5</v>
       </c>
       <c r="W15" s="20">
-        <f t="shared" ref="W15:W22" si="20">AV15+((1/12)*AW15)</f>
+        <f t="shared" ref="W15:W22" si="26">AV15+((1/12)*AW15)</f>
         <v>0</v>
       </c>
       <c r="X15" s="20">
-        <f t="shared" ref="X15:X22" si="21">AX15+((1/12)*AY15)</f>
+        <f t="shared" ref="X15:X22" si="27">AX15+((1/12)*AY15)</f>
         <v>0</v>
       </c>
       <c r="Y15" s="21">
-        <f t="shared" ref="Y15:Y22" si="22">AZ15+((1/12)*BA15)</f>
+        <f t="shared" ref="Y15:Y22" si="28">AZ15+((1/12)*BA15)</f>
         <v>0</v>
       </c>
       <c r="Z15" s="25">
-        <f>BC15+(BD15*(1/12))-O15</f>
+        <f t="shared" si="3"/>
         <v>-10.840634357325053</v>
       </c>
       <c r="AA15" s="26">
-        <f>BE15+(BF15*(1/12))-O15</f>
+        <f t="shared" si="4"/>
         <v>-10.840634357325053</v>
       </c>
       <c r="AB15" s="26">
-        <f>BG15+(BH15*(1/12))-O15</f>
+        <f t="shared" si="5"/>
         <v>-10.840634357325053</v>
       </c>
       <c r="AC15" s="26">
-        <f t="shared" ref="AC15:AC22" si="23">BI15+(BJ15*(1/12))</f>
+        <f t="shared" ref="AC15:AC22" si="29">BI15+(BJ15*(1/12))</f>
         <v>0</v>
       </c>
       <c r="AD15" s="26">
-        <f t="shared" ref="AD15:AD22" si="24">BK15+(BL15*(1/12))</f>
+        <f t="shared" ref="AD15:AD22" si="30">BK15+(BL15*(1/12))</f>
         <v>0</v>
       </c>
       <c r="AE15" s="27">
-        <f t="shared" ref="AE15:AE22" si="25">BM15+(BN15*(1/12))</f>
+        <f t="shared" ref="AE15:AE22" si="31">BM15+(BN15*(1/12))</f>
         <v>0</v>
       </c>
       <c r="AG15" s="13">
@@ -6652,71 +6659,71 @@
         <v>170</v>
       </c>
       <c r="O16">
-        <f t="shared" ref="O16:O22" si="26">((K16*L16)/M16)*N16*(1/304.8)</f>
+        <f t="shared" ref="O16:O22" si="32">((K16*L16)/M16)*N16*(1/304.8)</f>
         <v>10.840634357325053</v>
       </c>
       <c r="P16" s="13">
-        <f>AG16+(AH16*(1/12))-O16</f>
+        <f t="shared" si="0"/>
         <v>54.159365642674949</v>
       </c>
       <c r="Q16" s="14">
-        <f>AI16+(AJ16*(1/12))-O16</f>
+        <f t="shared" si="1"/>
         <v>77.159365642674942</v>
       </c>
       <c r="R16" s="14">
-        <f>AK16+(AL16*(1/12))-O16</f>
+        <f t="shared" si="2"/>
         <v>100.15936564267494</v>
       </c>
       <c r="S16" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>-15</v>
       </c>
       <c r="T16" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>-15</v>
       </c>
       <c r="U16" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>-15</v>
       </c>
       <c r="V16" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>132</v>
       </c>
       <c r="W16" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>-14</v>
       </c>
       <c r="X16" s="20">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>132</v>
       </c>
       <c r="Y16" s="21">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>14</v>
       </c>
       <c r="Z16" s="25">
-        <f>BC16+(BD16*(1/12))-O16</f>
+        <f t="shared" si="3"/>
         <v>100.15936564267494</v>
       </c>
       <c r="AA16" s="26">
-        <f>BE16+(BF16*(1/12))-O16</f>
+        <f t="shared" si="4"/>
         <v>77.159365642674942</v>
       </c>
       <c r="AB16" s="26">
-        <f>BG16+(BH16*(1/12))-O16</f>
+        <f t="shared" si="5"/>
         <v>54.159365642674949</v>
       </c>
       <c r="AC16" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>15</v>
       </c>
       <c r="AD16" s="26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>15</v>
       </c>
       <c r="AE16" s="27">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>15</v>
       </c>
       <c r="AG16" s="13">
@@ -6866,71 +6873,71 @@
         <v>170</v>
       </c>
       <c r="O17">
+        <f t="shared" si="32"/>
+        <v>10.840634357325053</v>
+      </c>
+      <c r="P17" s="13">
+        <f t="shared" si="0"/>
+        <v>65.159365642674942</v>
+      </c>
+      <c r="Q17" s="14">
+        <f t="shared" si="1"/>
+        <v>90.159365642674942</v>
+      </c>
+      <c r="R17" s="14">
+        <f t="shared" si="2"/>
+        <v>115.15936564267494</v>
+      </c>
+      <c r="S17" s="14">
+        <f t="shared" si="22"/>
+        <v>-14.25</v>
+      </c>
+      <c r="T17" s="14">
+        <f t="shared" si="23"/>
+        <v>-21.25</v>
+      </c>
+      <c r="U17" s="15">
+        <f t="shared" si="24"/>
+        <v>-14.25</v>
+      </c>
+      <c r="V17" s="19">
+        <f t="shared" si="25"/>
+        <v>135</v>
+      </c>
+      <c r="W17" s="20">
         <f t="shared" si="26"/>
-        <v>10.840634357325053</v>
-      </c>
-      <c r="P17" s="13">
-        <f>AG17+(AH17*(1/12))-O17</f>
+        <v>-17</v>
+      </c>
+      <c r="X17" s="20">
+        <f t="shared" si="27"/>
+        <v>135</v>
+      </c>
+      <c r="Y17" s="21">
+        <f t="shared" si="28"/>
+        <v>17</v>
+      </c>
+      <c r="Z17" s="25">
+        <f t="shared" si="3"/>
+        <v>115.15936564267494</v>
+      </c>
+      <c r="AA17" s="26">
+        <f t="shared" si="4"/>
+        <v>90.159365642674942</v>
+      </c>
+      <c r="AB17" s="26">
+        <f t="shared" si="5"/>
         <v>65.159365642674942</v>
       </c>
-      <c r="Q17" s="14">
-        <f>AI17+(AJ17*(1/12))-O17</f>
-        <v>90.159365642674942</v>
-      </c>
-      <c r="R17" s="14">
-        <f>AK17+(AL17*(1/12))-O17</f>
-        <v>115.15936564267494</v>
-      </c>
-      <c r="S17" s="14">
-        <f t="shared" si="16"/>
-        <v>-14.25</v>
-      </c>
-      <c r="T17" s="14">
-        <f t="shared" si="17"/>
-        <v>-21.25</v>
-      </c>
-      <c r="U17" s="15">
-        <f t="shared" si="18"/>
-        <v>-14.25</v>
-      </c>
-      <c r="V17" s="19">
-        <f t="shared" si="19"/>
-        <v>135</v>
-      </c>
-      <c r="W17" s="20">
-        <f t="shared" si="20"/>
-        <v>-17</v>
-      </c>
-      <c r="X17" s="20">
-        <f t="shared" si="21"/>
-        <v>135</v>
-      </c>
-      <c r="Y17" s="21">
-        <f t="shared" si="22"/>
-        <v>17</v>
-      </c>
-      <c r="Z17" s="25">
-        <f>BC17+(BD17*(1/12))-O17</f>
-        <v>115.15936564267494</v>
-      </c>
-      <c r="AA17" s="26">
-        <f>BE17+(BF17*(1/12))-O17</f>
-        <v>90.159365642674942</v>
-      </c>
-      <c r="AB17" s="26">
-        <f>BG17+(BH17*(1/12))-O17</f>
-        <v>65.159365642674942</v>
-      </c>
       <c r="AC17" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>14.25</v>
       </c>
       <c r="AD17" s="26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>21.25</v>
       </c>
       <c r="AE17" s="27">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>14.25</v>
       </c>
       <c r="AG17" s="13">
@@ -7080,71 +7087,71 @@
         <v>170</v>
       </c>
       <c r="O18">
+        <f t="shared" si="32"/>
+        <v>10.840634357325053</v>
+      </c>
+      <c r="P18" s="13">
+        <f t="shared" si="0"/>
+        <v>65.159365642674942</v>
+      </c>
+      <c r="Q18" s="14">
+        <f t="shared" si="1"/>
+        <v>81.159365642674942</v>
+      </c>
+      <c r="R18" s="14">
+        <f t="shared" si="2"/>
+        <v>97.159365642674942</v>
+      </c>
+      <c r="S18" s="14">
+        <f t="shared" si="22"/>
+        <v>-11</v>
+      </c>
+      <c r="T18" s="14">
+        <f t="shared" si="23"/>
+        <v>-11</v>
+      </c>
+      <c r="U18" s="15">
+        <f t="shared" si="24"/>
+        <v>-11</v>
+      </c>
+      <c r="V18" s="19">
+        <f t="shared" si="25"/>
+        <v>111.5</v>
+      </c>
+      <c r="W18" s="20">
         <f t="shared" si="26"/>
-        <v>10.840634357325053</v>
-      </c>
-      <c r="P18" s="13">
-        <f>AG18+(AH18*(1/12))-O18</f>
+        <v>-8</v>
+      </c>
+      <c r="X18" s="20">
+        <f t="shared" si="27"/>
+        <v>111.5</v>
+      </c>
+      <c r="Y18" s="21">
+        <f t="shared" si="28"/>
+        <v>8</v>
+      </c>
+      <c r="Z18" s="25">
+        <f t="shared" si="3"/>
+        <v>97.159365642674942</v>
+      </c>
+      <c r="AA18" s="26">
+        <f t="shared" si="4"/>
+        <v>81.159365642674942</v>
+      </c>
+      <c r="AB18" s="26">
+        <f t="shared" si="5"/>
         <v>65.159365642674942</v>
       </c>
-      <c r="Q18" s="14">
-        <f>AI18+(AJ18*(1/12))-O18</f>
-        <v>81.159365642674942</v>
-      </c>
-      <c r="R18" s="14">
-        <f>AK18+(AL18*(1/12))-O18</f>
-        <v>97.159365642674942</v>
-      </c>
-      <c r="S18" s="14">
-        <f t="shared" si="16"/>
-        <v>-11</v>
-      </c>
-      <c r="T18" s="14">
-        <f t="shared" si="17"/>
-        <v>-11</v>
-      </c>
-      <c r="U18" s="15">
-        <f t="shared" si="18"/>
-        <v>-11</v>
-      </c>
-      <c r="V18" s="19">
-        <f t="shared" si="19"/>
-        <v>111.5</v>
-      </c>
-      <c r="W18" s="20">
-        <f t="shared" si="20"/>
-        <v>-8</v>
-      </c>
-      <c r="X18" s="20">
-        <f t="shared" si="21"/>
-        <v>111.5</v>
-      </c>
-      <c r="Y18" s="21">
-        <f t="shared" si="22"/>
-        <v>8</v>
-      </c>
-      <c r="Z18" s="25">
-        <f>BC18+(BD18*(1/12))-O18</f>
-        <v>97.159365642674942</v>
-      </c>
-      <c r="AA18" s="26">
-        <f>BE18+(BF18*(1/12))-O18</f>
-        <v>81.159365642674942</v>
-      </c>
-      <c r="AB18" s="26">
-        <f>BG18+(BH18*(1/12))-O18</f>
-        <v>65.159365642674942</v>
-      </c>
       <c r="AC18" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>11</v>
       </c>
       <c r="AD18" s="26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>11</v>
       </c>
       <c r="AE18" s="27">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>11</v>
       </c>
       <c r="AG18" s="13">
@@ -7294,71 +7301,71 @@
         <v>170</v>
       </c>
       <c r="O19">
+        <f t="shared" si="32"/>
+        <v>10.840634357325053</v>
+      </c>
+      <c r="P19" s="13">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="Q19" s="14">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="R19" s="14">
+        <f t="shared" si="2"/>
+        <v>122</v>
+      </c>
+      <c r="S19" s="14">
+        <f t="shared" si="22"/>
+        <v>-11</v>
+      </c>
+      <c r="T19" s="14">
+        <f t="shared" si="23"/>
+        <v>-19</v>
+      </c>
+      <c r="U19" s="15">
+        <f t="shared" si="24"/>
+        <v>-11</v>
+      </c>
+      <c r="V19" s="19">
+        <f t="shared" si="25"/>
+        <v>140</v>
+      </c>
+      <c r="W19" s="20">
         <f t="shared" si="26"/>
-        <v>10.840634357325053</v>
-      </c>
-      <c r="P19" s="13">
-        <f>AG19+(AH19*(1/12))-O19</f>
+        <v>-7</v>
+      </c>
+      <c r="X19" s="20">
+        <f t="shared" si="27"/>
+        <v>140</v>
+      </c>
+      <c r="Y19" s="21">
+        <f t="shared" si="28"/>
+        <v>7</v>
+      </c>
+      <c r="Z19" s="25">
+        <f t="shared" si="3"/>
+        <v>122</v>
+      </c>
+      <c r="AA19" s="26">
+        <f t="shared" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="AB19" s="26">
+        <f t="shared" si="5"/>
         <v>72</v>
       </c>
-      <c r="Q19" s="14">
-        <f>AI19+(AJ19*(1/12))-O19</f>
-        <v>97</v>
-      </c>
-      <c r="R19" s="14">
-        <f>AK19+(AL19*(1/12))-O19</f>
-        <v>122</v>
-      </c>
-      <c r="S19" s="14">
-        <f t="shared" si="16"/>
-        <v>-11</v>
-      </c>
-      <c r="T19" s="14">
-        <f t="shared" si="17"/>
-        <v>-19</v>
-      </c>
-      <c r="U19" s="15">
-        <f t="shared" si="18"/>
-        <v>-11</v>
-      </c>
-      <c r="V19" s="19">
-        <f t="shared" si="19"/>
-        <v>140</v>
-      </c>
-      <c r="W19" s="20">
-        <f t="shared" si="20"/>
-        <v>-7</v>
-      </c>
-      <c r="X19" s="20">
-        <f t="shared" si="21"/>
-        <v>140</v>
-      </c>
-      <c r="Y19" s="21">
-        <f t="shared" si="22"/>
-        <v>7</v>
-      </c>
-      <c r="Z19" s="25">
-        <f>BC19+(BD19*(1/12))-O19</f>
-        <v>122</v>
-      </c>
-      <c r="AA19" s="26">
-        <f>BE19+(BF19*(1/12))-O19</f>
-        <v>97</v>
-      </c>
-      <c r="AB19" s="26">
-        <f>BG19+(BH19*(1/12))-O19</f>
-        <v>72</v>
-      </c>
       <c r="AC19" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>11</v>
       </c>
       <c r="AD19" s="26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>19</v>
       </c>
       <c r="AE19" s="27">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>11</v>
       </c>
       <c r="AG19" s="13">
@@ -7508,71 +7515,71 @@
         <v>170</v>
       </c>
       <c r="O20">
+        <f t="shared" si="32"/>
+        <v>10.840634357325053</v>
+      </c>
+      <c r="P20" s="13">
+        <f t="shared" si="0"/>
+        <v>59.159365642674949</v>
+      </c>
+      <c r="Q20" s="14">
+        <f t="shared" si="1"/>
+        <v>81.659365642674942</v>
+      </c>
+      <c r="R20" s="14">
+        <f t="shared" si="2"/>
+        <v>104.15936564267494</v>
+      </c>
+      <c r="S20" s="14">
+        <f t="shared" si="22"/>
+        <v>-9</v>
+      </c>
+      <c r="T20" s="14">
+        <f t="shared" si="23"/>
+        <v>-13</v>
+      </c>
+      <c r="U20" s="15">
+        <f t="shared" si="24"/>
+        <v>-9</v>
+      </c>
+      <c r="V20" s="19">
+        <f t="shared" si="25"/>
+        <v>145.5</v>
+      </c>
+      <c r="W20" s="20">
         <f t="shared" si="26"/>
-        <v>10.840634357325053</v>
-      </c>
-      <c r="P20" s="13">
-        <f>AG20+(AH20*(1/12))-O20</f>
+        <v>0</v>
+      </c>
+      <c r="X20" s="20">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="21">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Z20" s="25">
+        <f t="shared" si="3"/>
+        <v>104.15936564267494</v>
+      </c>
+      <c r="AA20" s="26">
+        <f t="shared" si="4"/>
+        <v>81.659365642674942</v>
+      </c>
+      <c r="AB20" s="26">
+        <f t="shared" si="5"/>
         <v>59.159365642674949</v>
       </c>
-      <c r="Q20" s="14">
-        <f>AI20+(AJ20*(1/12))-O20</f>
-        <v>81.659365642674942</v>
-      </c>
-      <c r="R20" s="14">
-        <f>AK20+(AL20*(1/12))-O20</f>
-        <v>104.15936564267494</v>
-      </c>
-      <c r="S20" s="14">
-        <f t="shared" si="16"/>
+      <c r="AC20" s="26">
+        <f t="shared" si="29"/>
         <v>-9</v>
       </c>
-      <c r="T20" s="14">
-        <f t="shared" si="17"/>
+      <c r="AD20" s="26">
+        <f t="shared" si="30"/>
         <v>-13</v>
       </c>
-      <c r="U20" s="15">
-        <f t="shared" si="18"/>
-        <v>-9</v>
-      </c>
-      <c r="V20" s="19">
-        <f t="shared" si="19"/>
-        <v>145.5</v>
-      </c>
-      <c r="W20" s="20">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="X20" s="20">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="Y20" s="21">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="Z20" s="25">
-        <f>BC20+(BD20*(1/12))-O20</f>
-        <v>104.15936564267494</v>
-      </c>
-      <c r="AA20" s="26">
-        <f>BE20+(BF20*(1/12))-O20</f>
-        <v>81.659365642674942</v>
-      </c>
-      <c r="AB20" s="26">
-        <f>BG20+(BH20*(1/12))-O20</f>
-        <v>59.159365642674949</v>
-      </c>
-      <c r="AC20" s="26">
-        <f t="shared" si="23"/>
-        <v>-9</v>
-      </c>
-      <c r="AD20" s="26">
-        <f t="shared" si="24"/>
-        <v>-13</v>
-      </c>
       <c r="AE20" s="27">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>-9</v>
       </c>
       <c r="AG20" s="13">
@@ -7724,71 +7731,71 @@
         <v>170</v>
       </c>
       <c r="O21">
+        <f t="shared" si="32"/>
+        <v>10.840634357325053</v>
+      </c>
+      <c r="P21" s="13">
+        <f t="shared" si="0"/>
+        <v>116.82603230934161</v>
+      </c>
+      <c r="Q21" s="14">
+        <f t="shared" si="1"/>
+        <v>80.826032309341613</v>
+      </c>
+      <c r="R21" s="14">
+        <f t="shared" si="2"/>
+        <v>80.826032309341613</v>
+      </c>
+      <c r="S21" s="14">
+        <f t="shared" si="22"/>
+        <v>-15.5</v>
+      </c>
+      <c r="T21" s="14">
+        <f t="shared" si="23"/>
+        <v>-41</v>
+      </c>
+      <c r="U21" s="15">
+        <f t="shared" si="24"/>
+        <v>-16</v>
+      </c>
+      <c r="V21" s="19">
+        <f t="shared" si="25"/>
+        <v>127.66666666666667</v>
+      </c>
+      <c r="W21" s="20">
         <f t="shared" si="26"/>
-        <v>10.840634357325053</v>
-      </c>
-      <c r="P21" s="13">
-        <f>AG21+(AH21*(1/12))-O21</f>
+        <v>-30</v>
+      </c>
+      <c r="X21" s="20">
+        <f t="shared" si="27"/>
+        <v>127.66666666666667</v>
+      </c>
+      <c r="Y21" s="21">
+        <f t="shared" si="28"/>
+        <v>30</v>
+      </c>
+      <c r="Z21" s="25">
+        <f t="shared" si="3"/>
         <v>116.82603230934161</v>
       </c>
-      <c r="Q21" s="14">
-        <f>AI21+(AJ21*(1/12))-O21</f>
+      <c r="AA21" s="26">
+        <f t="shared" si="4"/>
         <v>80.826032309341613</v>
       </c>
-      <c r="R21" s="14">
-        <f>AK21+(AL21*(1/12))-O21</f>
+      <c r="AB21" s="26">
+        <f t="shared" si="5"/>
         <v>80.826032309341613</v>
       </c>
-      <c r="S21" s="14">
-        <f t="shared" si="16"/>
-        <v>-15.5</v>
-      </c>
-      <c r="T21" s="14">
-        <f t="shared" si="17"/>
-        <v>-41</v>
-      </c>
-      <c r="U21" s="15">
-        <f t="shared" si="18"/>
-        <v>-16</v>
-      </c>
-      <c r="V21" s="19">
-        <f t="shared" si="19"/>
-        <v>127.66666666666667</v>
-      </c>
-      <c r="W21" s="20">
-        <f t="shared" si="20"/>
-        <v>-30</v>
-      </c>
-      <c r="X21" s="20">
-        <f t="shared" si="21"/>
-        <v>127.66666666666667</v>
-      </c>
-      <c r="Y21" s="21">
-        <f t="shared" si="22"/>
-        <v>30</v>
-      </c>
-      <c r="Z21" s="25">
-        <f>BC21+(BD21*(1/12))-O21</f>
-        <v>116.82603230934161</v>
-      </c>
-      <c r="AA21" s="26">
-        <f>BE21+(BF21*(1/12))-O21</f>
-        <v>80.826032309341613</v>
-      </c>
-      <c r="AB21" s="26">
-        <f>BG21+(BH21*(1/12))-O21</f>
-        <v>80.826032309341613</v>
-      </c>
       <c r="AC21" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>15.5</v>
       </c>
       <c r="AD21" s="26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>16</v>
       </c>
       <c r="AE21" s="27">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>41</v>
       </c>
       <c r="AG21" s="13">
@@ -7937,71 +7944,71 @@
         <v>170</v>
       </c>
       <c r="O22">
+        <f t="shared" si="32"/>
+        <v>10.840634357325053</v>
+      </c>
+      <c r="P22" s="13">
+        <f t="shared" si="0"/>
+        <v>98.159365642674942</v>
+      </c>
+      <c r="Q22" s="14">
+        <f t="shared" si="1"/>
+        <v>55.159365642674949</v>
+      </c>
+      <c r="R22" s="14">
+        <f t="shared" si="2"/>
+        <v>55.159365642674949</v>
+      </c>
+      <c r="S22" s="14">
+        <f t="shared" si="22"/>
+        <v>-22</v>
+      </c>
+      <c r="T22" s="14">
+        <f t="shared" si="23"/>
+        <v>-33</v>
+      </c>
+      <c r="U22" s="15">
+        <f t="shared" si="24"/>
+        <v>-10</v>
+      </c>
+      <c r="V22" s="19">
+        <f t="shared" si="25"/>
+        <v>118</v>
+      </c>
+      <c r="W22" s="20">
         <f t="shared" si="26"/>
-        <v>10.840634357325053</v>
-      </c>
-      <c r="P22" s="13">
-        <f>AG22+(AH22*(1/12))-O22</f>
+        <v>0</v>
+      </c>
+      <c r="X22" s="20">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="21">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="25">
+        <f t="shared" si="3"/>
         <v>98.159365642674942</v>
       </c>
-      <c r="Q22" s="14">
-        <f>AI22+(AJ22*(1/12))-O22</f>
+      <c r="AA22" s="26">
+        <f t="shared" si="4"/>
         <v>55.159365642674949</v>
       </c>
-      <c r="R22" s="14">
-        <f>AK22+(AL22*(1/12))-O22</f>
+      <c r="AB22" s="26">
+        <f t="shared" si="5"/>
         <v>55.159365642674949</v>
       </c>
-      <c r="S22" s="14">
-        <f t="shared" si="16"/>
-        <v>-22</v>
-      </c>
-      <c r="T22" s="14">
-        <f t="shared" si="17"/>
-        <v>-33</v>
-      </c>
-      <c r="U22" s="15">
-        <f t="shared" si="18"/>
-        <v>-10</v>
-      </c>
-      <c r="V22" s="19">
-        <f t="shared" si="19"/>
-        <v>118</v>
-      </c>
-      <c r="W22" s="20">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="X22" s="20">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="Y22" s="21">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="Z22" s="25">
-        <f>BC22+(BD22*(1/12))-O22</f>
-        <v>98.159365642674942</v>
-      </c>
-      <c r="AA22" s="26">
-        <f>BE22+(BF22*(1/12))-O22</f>
-        <v>55.159365642674949</v>
-      </c>
-      <c r="AB22" s="26">
-        <f>BG22+(BH22*(1/12))-O22</f>
-        <v>55.159365642674949</v>
-      </c>
       <c r="AC22" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>22</v>
       </c>
       <c r="AD22" s="26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>10</v>
       </c>
       <c r="AE22" s="27">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>33</v>
       </c>
       <c r="AG22" s="13">
@@ -8150,71 +8157,71 @@
         <v>170</v>
       </c>
       <c r="O23">
-        <f t="shared" ref="O23:O32" si="27">((K23*L23)/M23)*N23*(1/304.8)</f>
+        <f t="shared" ref="O23:O32" si="33">((K23*L23)/M23)*N23*(1/304.8)</f>
         <v>10.840634357325053</v>
       </c>
       <c r="P23" s="13">
-        <f>AG23+(AH23*(1/12))-O23</f>
+        <f t="shared" si="0"/>
         <v>49.159365642674949</v>
       </c>
       <c r="Q23" s="14">
-        <f>AI23+(AJ23*(1/12))-O23</f>
+        <f t="shared" si="1"/>
         <v>49.159365642674949</v>
       </c>
       <c r="R23" s="14">
-        <f>AK23+(AL23*(1/12))-O23</f>
+        <f t="shared" si="2"/>
         <v>49.159365642674949</v>
       </c>
       <c r="S23" s="14">
-        <f t="shared" ref="S23:S33" si="28">AM23+(AN23*(1/12))</f>
+        <f t="shared" ref="S23:S33" si="34">AM23+(AN23*(1/12))</f>
         <v>-18</v>
       </c>
       <c r="T23" s="14">
-        <f t="shared" ref="T23:T33" si="29">AO23+(AP23*(1/12))</f>
+        <f t="shared" ref="T23:T33" si="35">AO23+(AP23*(1/12))</f>
         <v>0</v>
       </c>
       <c r="U23" s="15">
-        <f t="shared" ref="U23:U33" si="30">AQ23+(AR23*(1/12))</f>
+        <f t="shared" ref="U23:U33" si="36">AQ23+(AR23*(1/12))</f>
         <v>18</v>
       </c>
       <c r="V23" s="19">
-        <f t="shared" ref="V23:V33" si="31">AT23+((1/12)*AU23)</f>
+        <f t="shared" ref="V23:V33" si="37">AT23+((1/12)*AU23)</f>
         <v>73</v>
       </c>
       <c r="W23" s="20">
-        <f t="shared" ref="W23:W33" si="32">AV23+((1/12)*AW23)</f>
+        <f t="shared" ref="W23:W33" si="38">AV23+((1/12)*AW23)</f>
         <v>-12.25</v>
       </c>
       <c r="X23" s="20">
-        <f t="shared" ref="X23:X33" si="33">AX23+((1/12)*AY23)</f>
+        <f t="shared" ref="X23:X33" si="39">AX23+((1/12)*AY23)</f>
         <v>73</v>
       </c>
       <c r="Y23" s="21">
-        <f t="shared" ref="Y23:Y33" si="34">AZ23+((1/12)*BA23)</f>
+        <f t="shared" ref="Y23:Y33" si="40">AZ23+((1/12)*BA23)</f>
         <v>12.25</v>
       </c>
       <c r="Z23" s="25">
-        <f>BC23+(BD23*(1/12))-O23</f>
+        <f t="shared" si="3"/>
         <v>-10.840634357325053</v>
       </c>
       <c r="AA23" s="26">
-        <f>BE23+(BF23*(1/12))-O23</f>
+        <f t="shared" si="4"/>
         <v>-10.840634357325053</v>
       </c>
       <c r="AB23" s="26">
-        <f>BG23+(BH23*(1/12))-O23</f>
+        <f t="shared" si="5"/>
         <v>-10.840634357325053</v>
       </c>
       <c r="AC23" s="26">
-        <f t="shared" ref="AC23:AC33" si="35">BI23+(BJ23*(1/12))</f>
+        <f t="shared" ref="AC23:AC33" si="41">BI23+(BJ23*(1/12))</f>
         <v>0</v>
       </c>
       <c r="AD23" s="26">
-        <f t="shared" ref="AD23:AD33" si="36">BK23+(BL23*(1/12))</f>
+        <f t="shared" ref="AD23:AD33" si="42">BK23+(BL23*(1/12))</f>
         <v>0</v>
       </c>
       <c r="AE23" s="27">
-        <f t="shared" ref="AE23:AE33" si="37">BM23+(BN23*(1/12))</f>
+        <f t="shared" ref="AE23:AE33" si="43">BM23+(BN23*(1/12))</f>
         <v>0</v>
       </c>
       <c r="AG23" s="13">
@@ -8326,71 +8333,71 @@
         <v>170</v>
       </c>
       <c r="O24">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>10.840634357325053</v>
       </c>
       <c r="P24" s="13">
-        <f>AG24+(AH24*(1/12))-O24</f>
+        <f t="shared" si="0"/>
         <v>62.159365642674949</v>
       </c>
       <c r="Q24" s="14">
-        <f>AI24+(AJ24*(1/12))-O24</f>
+        <f t="shared" si="1"/>
         <v>62.159365642674949</v>
       </c>
       <c r="R24" s="14">
-        <f>AK24+(AL24*(1/12))-O24</f>
+        <f t="shared" si="2"/>
         <v>62.159365642674949</v>
       </c>
       <c r="S24" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-27</v>
       </c>
       <c r="T24" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="U24" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>27</v>
       </c>
       <c r="V24" s="19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>73</v>
       </c>
       <c r="W24" s="20">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>-12.25</v>
       </c>
       <c r="X24" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>73</v>
       </c>
       <c r="Y24" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>12.25</v>
       </c>
       <c r="Z24" s="25">
-        <f>BC24+(BD24*(1/12))-O24</f>
+        <f t="shared" si="3"/>
         <v>-10.840634357325053</v>
       </c>
       <c r="AA24" s="26">
-        <f>BE24+(BF24*(1/12))-O24</f>
+        <f t="shared" si="4"/>
         <v>-10.840634357325053</v>
       </c>
       <c r="AB24" s="26">
-        <f>BG24+(BH24*(1/12))-O24</f>
+        <f t="shared" si="5"/>
         <v>-10.840634357325053</v>
       </c>
       <c r="AC24" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AD24" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AE24" s="27">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AG24" s="13">
@@ -8498,71 +8505,71 @@
         <v>170</v>
       </c>
       <c r="O25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>10.840634357325053</v>
       </c>
       <c r="P25" s="13">
-        <f>AG25+(AH25*(1/12))-O25</f>
+        <f t="shared" si="0"/>
         <v>44.826032309341613</v>
       </c>
       <c r="Q25" s="14">
-        <f>AI25+(AJ25*(1/12))-O25</f>
+        <f t="shared" si="1"/>
         <v>44.826032309341613</v>
       </c>
       <c r="R25" s="14">
-        <f>AK25+(AL25*(1/12))-O25</f>
+        <f t="shared" si="2"/>
         <v>44.826032309341613</v>
       </c>
       <c r="S25" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-26</v>
       </c>
       <c r="T25" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="U25" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>26</v>
       </c>
       <c r="V25" s="19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>65.5</v>
       </c>
       <c r="W25" s="20">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>-13</v>
       </c>
       <c r="X25" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>65.5</v>
       </c>
       <c r="Y25" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>13</v>
       </c>
       <c r="Z25" s="25">
-        <f>BC25+(BD25*(1/12))-O25</f>
+        <f t="shared" si="3"/>
         <v>-10.840634357325053</v>
       </c>
       <c r="AA25" s="26">
-        <f>BE25+(BF25*(1/12))-O25</f>
+        <f t="shared" si="4"/>
         <v>-10.840634357325053</v>
       </c>
       <c r="AB25" s="26">
-        <f>BG25+(BH25*(1/12))-O25</f>
+        <f t="shared" si="5"/>
         <v>-10.840634357325053</v>
       </c>
       <c r="AC25" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AD25" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AE25" s="27">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AG25" s="13">
@@ -8672,71 +8679,71 @@
         <v>170</v>
       </c>
       <c r="O26">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>10.840634357325053</v>
       </c>
       <c r="P26" s="13">
-        <f>AG26+(AH26*(1/12))-O26</f>
+        <f t="shared" si="0"/>
         <v>50.159365642674949</v>
       </c>
       <c r="Q26" s="14">
-        <f>AI26+(AJ26*(1/12))-O26</f>
+        <f t="shared" si="1"/>
         <v>50.159365642674949</v>
       </c>
       <c r="R26" s="14">
-        <f>AK26+(AL26*(1/12))-O26</f>
+        <f t="shared" si="2"/>
         <v>50.159365642674949</v>
       </c>
       <c r="S26" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-26</v>
       </c>
       <c r="T26" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="U26" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>26</v>
       </c>
       <c r="V26" s="19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>73.5</v>
       </c>
       <c r="W26" s="20">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>-13</v>
       </c>
       <c r="X26" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>73.5</v>
       </c>
       <c r="Y26" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>13</v>
       </c>
       <c r="Z26" s="25">
-        <f>BC26+(BD26*(1/12))-O26</f>
+        <f t="shared" si="3"/>
         <v>-10.840634357325053</v>
       </c>
       <c r="AA26" s="26">
-        <f>BE26+(BF26*(1/12))-O26</f>
+        <f t="shared" si="4"/>
         <v>-10.840634357325053</v>
       </c>
       <c r="AB26" s="26">
-        <f>BG26+(BH26*(1/12))-O26</f>
+        <f t="shared" si="5"/>
         <v>-10.840634357325053</v>
       </c>
       <c r="AC26" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AD26" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AE26" s="27">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AG26" s="13">
@@ -8845,71 +8852,71 @@
         <v>170</v>
       </c>
       <c r="O27">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>10.840634357325053</v>
       </c>
       <c r="P27" s="13">
-        <f>AG27+(AH27*(1/12))-O27</f>
+        <f t="shared" si="0"/>
         <v>52.659365642674949</v>
       </c>
       <c r="Q27" s="14">
-        <f>AI27+(AJ27*(1/12))-O27</f>
+        <f t="shared" si="1"/>
         <v>59.159365642674949</v>
       </c>
       <c r="R27" s="14">
-        <f>AK27+(AL27*(1/12))-O27</f>
+        <f t="shared" si="2"/>
         <v>52.659365642674949</v>
       </c>
       <c r="S27" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-27</v>
       </c>
       <c r="T27" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="U27" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>27</v>
       </c>
       <c r="V27" s="19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>78</v>
       </c>
       <c r="W27" s="20">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>-13.5</v>
       </c>
       <c r="X27" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>78</v>
       </c>
       <c r="Y27" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>13.5</v>
       </c>
       <c r="Z27" s="25">
-        <f>BC27+(BD27*(1/12))-O27</f>
+        <f t="shared" si="3"/>
         <v>-10.840634357325053</v>
       </c>
       <c r="AA27" s="26">
-        <f>BE27+(BF27*(1/12))-O27</f>
+        <f t="shared" si="4"/>
         <v>-10.840634357325053</v>
       </c>
       <c r="AB27" s="26">
-        <f>BG27+(BH27*(1/12))-O27</f>
+        <f t="shared" si="5"/>
         <v>-10.840634357325053</v>
       </c>
       <c r="AC27" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AD27" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AE27" s="27">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AG27" s="13">
@@ -9023,71 +9030,71 @@
         <v>170</v>
       </c>
       <c r="O28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>10.840634357325053</v>
       </c>
       <c r="P28" s="13">
-        <f>AG28+(AH28*(1/12))-O28</f>
+        <f t="shared" si="0"/>
         <v>46.659365642674949</v>
       </c>
       <c r="Q28" s="14">
-        <f>AI28+(AJ28*(1/12))-O28</f>
+        <f t="shared" si="1"/>
         <v>58.159365642674949</v>
       </c>
       <c r="R28" s="14">
-        <f>AK28+(AL28*(1/12))-O28</f>
+        <f t="shared" si="2"/>
         <v>46.659365642674949</v>
       </c>
       <c r="S28" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-28.25</v>
       </c>
       <c r="T28" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="U28" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>28.25</v>
       </c>
       <c r="V28" s="19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>69</v>
       </c>
       <c r="W28" s="20">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>-15.25</v>
       </c>
       <c r="X28" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>69</v>
       </c>
       <c r="Y28" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>15.25</v>
       </c>
       <c r="Z28" s="25">
-        <f>BC28+(BD28*(1/12))-O28</f>
+        <f t="shared" si="3"/>
         <v>-10.840634357325053</v>
       </c>
       <c r="AA28" s="26">
-        <f>BE28+(BF28*(1/12))-O28</f>
+        <f t="shared" si="4"/>
         <v>-10.840634357325053</v>
       </c>
       <c r="AB28" s="26">
-        <f>BG28+(BH28*(1/12))-O28</f>
+        <f t="shared" si="5"/>
         <v>-10.840634357325053</v>
       </c>
       <c r="AC28" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AD28" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AE28" s="27">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AG28" s="13">
@@ -9200,71 +9207,71 @@
         <v>170</v>
       </c>
       <c r="O29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>10.840634357325053</v>
       </c>
       <c r="P29" s="13">
-        <f>AG29+(AH29*(1/12))-O29</f>
+        <f t="shared" si="0"/>
         <v>49.159365642674949</v>
       </c>
       <c r="Q29" s="14">
-        <f>AI29+(AJ29*(1/12))-O29</f>
+        <f t="shared" si="1"/>
         <v>49.159365642674949</v>
       </c>
       <c r="R29" s="14">
-        <f>AK29+(AL29*(1/12))-O29</f>
+        <f t="shared" si="2"/>
         <v>49.159365642674949</v>
       </c>
       <c r="S29" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-23.5</v>
       </c>
       <c r="T29" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>23.5</v>
       </c>
       <c r="V29" s="19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>68.5</v>
       </c>
       <c r="W29" s="20">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>-13.5</v>
       </c>
       <c r="X29" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>68.5</v>
       </c>
       <c r="Y29" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>13.5</v>
       </c>
       <c r="Z29" s="25">
-        <f>BC29+(BD29*(1/12))-O29</f>
+        <f t="shared" si="3"/>
         <v>-10.840634357325053</v>
       </c>
       <c r="AA29" s="26">
-        <f>BE29+(BF29*(1/12))-O29</f>
+        <f t="shared" si="4"/>
         <v>-10.840634357325053</v>
       </c>
       <c r="AB29" s="26">
-        <f>BG29+(BH29*(1/12))-O29</f>
+        <f t="shared" si="5"/>
         <v>-10.840634357325053</v>
       </c>
       <c r="AC29" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AD29" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AE29" s="27">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AG29" s="13">
@@ -9374,71 +9381,71 @@
         <v>170</v>
       </c>
       <c r="O30">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>10.840634357325053</v>
       </c>
       <c r="P30" s="13">
-        <f>AG30+(AH30*(1/12))-O30</f>
+        <f t="shared" si="0"/>
         <v>51.159365642674949</v>
       </c>
       <c r="Q30" s="14">
-        <f>AI30+(AJ30*(1/12))-O30</f>
+        <f t="shared" si="1"/>
         <v>51.159365642674949</v>
       </c>
       <c r="R30" s="14">
-        <f>AK30+(AL30*(1/12))-O30</f>
+        <f t="shared" si="2"/>
         <v>51.159365642674949</v>
       </c>
       <c r="S30" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-24</v>
       </c>
       <c r="T30" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="U30" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="V30" s="19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>72.5</v>
       </c>
       <c r="W30" s="20">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>-26</v>
       </c>
       <c r="X30" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>72.5</v>
       </c>
       <c r="Y30" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>26</v>
       </c>
       <c r="Z30" s="25">
-        <f>BC30+(BD30*(1/12))-O30</f>
+        <f t="shared" si="3"/>
         <v>-10.840634357325053</v>
       </c>
       <c r="AA30" s="26">
-        <f>BE30+(BF30*(1/12))-O30</f>
+        <f t="shared" si="4"/>
         <v>-10.840634357325053</v>
       </c>
       <c r="AB30" s="26">
-        <f>BG30+(BH30*(1/12))-O30</f>
+        <f t="shared" si="5"/>
         <v>-10.840634357325053</v>
       </c>
       <c r="AC30" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AD30" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AE30" s="27">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AG30" s="13">
@@ -9515,7 +9522,7 @@
         <v>114</v>
       </c>
       <c r="D31" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>115</v>
@@ -9548,71 +9555,71 @@
         <v>170</v>
       </c>
       <c r="O31">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>10.840634357325053</v>
       </c>
       <c r="P31" s="13">
-        <f>AG31+(AH31*(1/12))-O31</f>
+        <f t="shared" si="0"/>
         <v>52.659365642674949</v>
       </c>
       <c r="Q31" s="14">
-        <f>AI31+(AJ31*(1/12))-O31</f>
+        <f t="shared" si="1"/>
         <v>52.659365642674949</v>
       </c>
       <c r="R31" s="14">
-        <f>AK31+(AL31*(1/12))-O31</f>
+        <f t="shared" si="2"/>
         <v>52.659365642674949</v>
       </c>
       <c r="S31" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-20</v>
       </c>
       <c r="T31" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="U31" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>20</v>
       </c>
       <c r="V31" s="19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>74.5</v>
       </c>
       <c r="W31" s="20">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>-9.5</v>
       </c>
       <c r="X31" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>74.5</v>
       </c>
       <c r="Y31" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>9.5</v>
       </c>
       <c r="Z31" s="25">
-        <f>BC31+(BD31*(1/12))-O31</f>
+        <f t="shared" si="3"/>
         <v>-10.840634357325053</v>
       </c>
       <c r="AA31" s="26">
-        <f>BE31+(BF31*(1/12))-O31</f>
+        <f t="shared" si="4"/>
         <v>-10.840634357325053</v>
       </c>
       <c r="AB31" s="26">
-        <f>BG31+(BH31*(1/12))-O31</f>
+        <f t="shared" si="5"/>
         <v>-10.840634357325053</v>
       </c>
       <c r="AC31" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AD31" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AE31" s="27">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AG31" s="13">
@@ -9721,71 +9728,71 @@
         <v>170</v>
       </c>
       <c r="O32">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>10.840634357325053</v>
       </c>
       <c r="P32" s="13">
-        <f>AG32+(AH32*(1/12))-O32</f>
+        <f t="shared" si="0"/>
         <v>96</v>
       </c>
       <c r="Q32" s="14">
-        <f>AI32+(AJ32*(1/12))-O32</f>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="R32" s="14">
-        <f>AK32+(AL32*(1/12))-O32</f>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="S32" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-10</v>
       </c>
       <c r="T32" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>-32.75</v>
       </c>
       <c r="U32" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>-10</v>
       </c>
       <c r="V32" s="19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>111</v>
       </c>
       <c r="W32" s="20">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>-27.25</v>
       </c>
       <c r="X32" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>111</v>
       </c>
       <c r="Y32" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>27.25</v>
       </c>
       <c r="Z32" s="25">
-        <f>BC32+(BD32*(1/12))-O32</f>
+        <f t="shared" si="3"/>
         <v>96</v>
       </c>
       <c r="AA32" s="26">
-        <f>BE32+(BF32*(1/12))-O32</f>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="AB32" s="26">
-        <f>BG32+(BH32*(1/12))-O32</f>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
       <c r="AC32" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
       <c r="AD32" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>10</v>
       </c>
       <c r="AE32" s="27">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>32.75</v>
       </c>
       <c r="AG32" s="13">
@@ -9939,71 +9946,71 @@
         <v>170</v>
       </c>
       <c r="O33">
-        <f t="shared" ref="O33:O35" si="38">((K33*L33)/M33)*N33*(1/304.8)</f>
+        <f t="shared" ref="O33:O35" si="44">((K33*L33)/M33)*N33*(1/304.8)</f>
         <v>10.840634357325053</v>
       </c>
       <c r="P33" s="13">
-        <f>AG33+(AH33*(1/12))-O33</f>
+        <f t="shared" si="0"/>
         <v>109.24269897600827</v>
       </c>
       <c r="Q33" s="14">
-        <f>AI33+(AJ33*(1/12))-O33</f>
+        <f t="shared" si="1"/>
         <v>84.659365642674942</v>
       </c>
       <c r="R33" s="14">
-        <f>AK33+(AL33*(1/12))-O33</f>
+        <f t="shared" si="2"/>
         <v>84.659365642674942</v>
       </c>
       <c r="S33" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="T33" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>-15</v>
       </c>
       <c r="U33" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>15</v>
       </c>
       <c r="V33" s="19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>120.08333333333333</v>
       </c>
       <c r="W33" s="20">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>-13.5</v>
       </c>
       <c r="X33" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>120.08333333333333</v>
       </c>
       <c r="Y33" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>13.5</v>
       </c>
       <c r="Z33" s="25">
-        <f>BC33+(BD33*(1/12))-O33</f>
+        <f t="shared" si="3"/>
         <v>-10.840634357325053</v>
       </c>
       <c r="AA33" s="26">
-        <f>BE33+(BF33*(1/12))-O33</f>
+        <f t="shared" si="4"/>
         <v>-10.840634357325053</v>
       </c>
       <c r="AB33" s="26">
-        <f>BG33+(BH33*(1/12))-O33</f>
+        <f t="shared" si="5"/>
         <v>-10.840634357325053</v>
       </c>
       <c r="AC33" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AD33" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AE33" s="27">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AG33" s="13">
@@ -10114,71 +10121,71 @@
         <v>170</v>
       </c>
       <c r="O34">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>10.840634357325053</v>
       </c>
       <c r="P34" s="13">
-        <f>AG34+(AH34*(1/12))-O34</f>
+        <f t="shared" ref="P34:P64" si="45">AG34+(AH34*(1/12))-O34</f>
         <v>116.15936564267494</v>
       </c>
       <c r="Q34" s="14">
-        <f>AI34+(AJ34*(1/12))-O34</f>
+        <f t="shared" ref="Q34:Q64" si="46">AI34+(AJ34*(1/12))-O34</f>
         <v>94.159365642674942</v>
       </c>
       <c r="R34" s="14">
-        <f>AK34+(AL34*(1/12))-O34</f>
+        <f t="shared" ref="R34:R64" si="47">AK34+(AL34*(1/12))-O34</f>
         <v>94.159365642674942</v>
       </c>
       <c r="S34" s="14">
-        <f t="shared" ref="S34:S35" si="39">AM34+(AN34*(1/12))</f>
+        <f t="shared" ref="S34:S35" si="48">AM34+(AN34*(1/12))</f>
         <v>0</v>
       </c>
       <c r="T34" s="14">
-        <f t="shared" ref="T34:T35" si="40">AO34+(AP34*(1/12))</f>
+        <f t="shared" ref="T34:T35" si="49">AO34+(AP34*(1/12))</f>
         <v>-13.5</v>
       </c>
       <c r="U34" s="15">
-        <f t="shared" ref="U34:U35" si="41">AQ34+(AR34*(1/12))</f>
+        <f t="shared" ref="U34:U35" si="50">AQ34+(AR34*(1/12))</f>
         <v>13.5</v>
       </c>
       <c r="V34" s="19">
-        <f t="shared" ref="V34:V35" si="42">AT34+((1/12)*AU34)</f>
+        <f t="shared" ref="V34:V35" si="51">AT34+((1/12)*AU34)</f>
         <v>127</v>
       </c>
       <c r="W34" s="20">
-        <f t="shared" ref="W34:W35" si="43">AV34+((1/12)*AW34)</f>
+        <f t="shared" ref="W34:W35" si="52">AV34+((1/12)*AW34)</f>
         <v>-10</v>
       </c>
       <c r="X34" s="20">
-        <f t="shared" ref="X34:X35" si="44">AX34+((1/12)*AY34)</f>
+        <f t="shared" ref="X34:X35" si="53">AX34+((1/12)*AY34)</f>
         <v>127</v>
       </c>
       <c r="Y34" s="21">
-        <f t="shared" ref="Y34:Y35" si="45">AZ34+((1/12)*BA34)</f>
+        <f t="shared" ref="Y34:Y35" si="54">AZ34+((1/12)*BA34)</f>
         <v>10</v>
       </c>
       <c r="Z34" s="25">
-        <f>BC34+(BD34*(1/12))-O34</f>
+        <f t="shared" ref="Z34:Z64" si="55">BC34+(BD34*(1/12))-O34</f>
         <v>-10.840634357325053</v>
       </c>
       <c r="AA34" s="26">
-        <f>BE34+(BF34*(1/12))-O34</f>
+        <f t="shared" ref="AA34:AA64" si="56">BE34+(BF34*(1/12))-O34</f>
         <v>-10.840634357325053</v>
       </c>
       <c r="AB34" s="26">
-        <f>BG34+(BH34*(1/12))-O34</f>
+        <f t="shared" ref="AB34:AB64" si="57">BG34+(BH34*(1/12))-O34</f>
         <v>-10.840634357325053</v>
       </c>
       <c r="AC34" s="26">
-        <f t="shared" ref="AC34:AC35" si="46">BI34+(BJ34*(1/12))</f>
+        <f t="shared" ref="AC34:AC35" si="58">BI34+(BJ34*(1/12))</f>
         <v>0</v>
       </c>
       <c r="AD34" s="26">
-        <f t="shared" ref="AD34:AD35" si="47">BK34+(BL34*(1/12))</f>
+        <f t="shared" ref="AD34:AD35" si="59">BK34+(BL34*(1/12))</f>
         <v>0</v>
       </c>
       <c r="AE34" s="27">
-        <f t="shared" ref="AE34:AE35" si="48">BM34+(BN34*(1/12))</f>
+        <f t="shared" ref="AE34:AE35" si="60">BM34+(BN34*(1/12))</f>
         <v>0</v>
       </c>
       <c r="AG34" s="13">
@@ -10288,71 +10295,71 @@
         <v>170</v>
       </c>
       <c r="O35">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>10.840634357325053</v>
       </c>
       <c r="P35" s="13">
-        <f>AG35+(AH35*(1/12))-O35</f>
+        <f t="shared" si="45"/>
         <v>116.15936564267494</v>
       </c>
       <c r="Q35" s="14">
-        <f>AI35+(AJ35*(1/12))-O35</f>
+        <f t="shared" si="46"/>
         <v>94.159365642674942</v>
       </c>
       <c r="R35" s="14">
-        <f>AK35+(AL35*(1/12))-O35</f>
+        <f t="shared" si="47"/>
         <v>94.159365642674942</v>
       </c>
       <c r="S35" s="14">
-        <f t="shared" si="39"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="T35" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="49"/>
         <v>-19.833333333333332</v>
       </c>
       <c r="U35" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>19.833333333333332</v>
       </c>
       <c r="V35" s="19">
-        <f t="shared" si="42"/>
+        <f t="shared" si="51"/>
         <v>127</v>
       </c>
       <c r="W35" s="20">
-        <f t="shared" si="43"/>
+        <f t="shared" si="52"/>
         <v>-9</v>
       </c>
       <c r="X35" s="20">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>127</v>
       </c>
       <c r="Y35" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="54"/>
         <v>9</v>
       </c>
       <c r="Z35" s="25">
-        <f>BC35+(BD35*(1/12))-O35</f>
+        <f t="shared" si="55"/>
         <v>-10.840634357325053</v>
       </c>
       <c r="AA35" s="26">
-        <f>BE35+(BF35*(1/12))-O35</f>
+        <f t="shared" si="56"/>
         <v>-10.840634357325053</v>
       </c>
       <c r="AB35" s="26">
-        <f>BG35+(BH35*(1/12))-O35</f>
+        <f t="shared" si="57"/>
         <v>-10.840634357325053</v>
       </c>
       <c r="AC35" s="26">
-        <f t="shared" si="46"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="AD35" s="26">
-        <f t="shared" si="47"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="AE35" s="27">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="AG35" s="13">
@@ -10450,71 +10457,71 @@
         <v>170</v>
       </c>
       <c r="O36">
-        <f t="shared" ref="O36:O50" si="49">((K36*L36)/M36)*N36*(1/304.8)</f>
+        <f t="shared" ref="O36:O50" si="61">((K36*L36)/M36)*N36*(1/304.8)</f>
         <v>15.711064285978338</v>
       </c>
       <c r="P36" s="13">
-        <f>AG36+(AH36*(1/12))-O36</f>
+        <f t="shared" si="45"/>
         <v>96.788935714021662</v>
       </c>
       <c r="Q36" s="14">
-        <f>AI36+(AJ36*(1/12))-O36</f>
+        <f t="shared" si="46"/>
         <v>69.288935714021662</v>
       </c>
       <c r="R36" s="14">
-        <f>AK36+(AL36*(1/12))-O36</f>
+        <f t="shared" si="47"/>
         <v>69.288935714021662</v>
       </c>
       <c r="S36" s="14">
-        <f t="shared" ref="S36:S50" si="50">AM36+(AN36*(1/12))</f>
+        <f t="shared" ref="S36:S50" si="62">AM36+(AN36*(1/12))</f>
         <v>0</v>
       </c>
       <c r="T36" s="14">
-        <f t="shared" ref="T36:T50" si="51">AO36+(AP36*(1/12))</f>
+        <f t="shared" ref="T36:T50" si="63">AO36+(AP36*(1/12))</f>
         <v>-20</v>
       </c>
       <c r="U36" s="15">
-        <f t="shared" ref="U36:U50" si="52">AQ36+(AR36*(1/12))</f>
+        <f t="shared" ref="U36:U50" si="64">AQ36+(AR36*(1/12))</f>
         <v>20</v>
       </c>
       <c r="V36" s="19">
-        <f t="shared" ref="V36:V50" si="53">AT36+((1/12)*AU36)</f>
+        <f t="shared" ref="V36:V50" si="65">AT36+((1/12)*AU36)</f>
         <v>122.25</v>
       </c>
       <c r="W36" s="20">
-        <f t="shared" ref="W36:W50" si="54">AV36+((1/12)*AW36)</f>
+        <f t="shared" ref="W36:W50" si="66">AV36+((1/12)*AW36)</f>
         <v>-13</v>
       </c>
       <c r="X36" s="20">
-        <f t="shared" ref="X36:X50" si="55">AX36+((1/12)*AY36)</f>
+        <f t="shared" ref="X36:X50" si="67">AX36+((1/12)*AY36)</f>
         <v>122.25</v>
       </c>
       <c r="Y36" s="21">
-        <f t="shared" ref="Y36:Y50" si="56">AZ36+((1/12)*BA36)</f>
+        <f t="shared" ref="Y36:Y50" si="68">AZ36+((1/12)*BA36)</f>
         <v>13</v>
       </c>
       <c r="Z36" s="25">
-        <f>BC36+(BD36*(1/12))-O36</f>
+        <f t="shared" si="55"/>
         <v>-15.711064285978338</v>
       </c>
       <c r="AA36" s="26">
-        <f>BE36+(BF36*(1/12))-O36</f>
+        <f t="shared" si="56"/>
         <v>-15.711064285978338</v>
       </c>
       <c r="AB36" s="26">
-        <f>BG36+(BH36*(1/12))-O36</f>
+        <f t="shared" si="57"/>
         <v>-15.711064285978338</v>
       </c>
       <c r="AC36" s="26">
-        <f t="shared" ref="AC36:AC50" si="57">BI36+(BJ36*(1/12))</f>
+        <f t="shared" ref="AC36:AC50" si="69">BI36+(BJ36*(1/12))</f>
         <v>0</v>
       </c>
       <c r="AD36" s="26">
-        <f t="shared" ref="AD36:AD50" si="58">BK36+(BL36*(1/12))</f>
+        <f t="shared" ref="AD36:AD50" si="70">BK36+(BL36*(1/12))</f>
         <v>0</v>
       </c>
       <c r="AE36" s="27">
-        <f t="shared" ref="AE36:AE50" si="59">BM36+(BN36*(1/12))</f>
+        <f t="shared" ref="AE36:AE50" si="71">BM36+(BN36*(1/12))</f>
         <v>0</v>
       </c>
       <c r="AG36" s="13">
@@ -10625,71 +10632,71 @@
         <v>170</v>
       </c>
       <c r="O37">
-        <f t="shared" si="49"/>
+        <f t="shared" si="61"/>
         <v>15.711064285978338</v>
       </c>
       <c r="P37" s="13">
-        <f>AG37+(AH37*(1/12))-O37</f>
+        <f t="shared" si="45"/>
         <v>98.288935714021662</v>
       </c>
       <c r="Q37" s="14">
-        <f>AI37+(AJ37*(1/12))-O37</f>
+        <f t="shared" si="46"/>
         <v>69.288935714021662</v>
       </c>
       <c r="R37" s="14">
-        <f>AK37+(AL37*(1/12))-O37</f>
+        <f t="shared" si="47"/>
         <v>69.288935714021662</v>
       </c>
       <c r="S37" s="14">
-        <f t="shared" si="50"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="T37" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="63"/>
         <v>-15.333333333333334</v>
       </c>
       <c r="U37" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="64"/>
         <v>15.333333333333334</v>
       </c>
       <c r="V37" s="19">
-        <f t="shared" si="53"/>
+        <f t="shared" si="65"/>
         <v>121</v>
       </c>
       <c r="W37" s="20">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>-12</v>
       </c>
       <c r="X37" s="20">
+        <f t="shared" si="67"/>
+        <v>121</v>
+      </c>
+      <c r="Y37" s="21">
+        <f t="shared" si="68"/>
+        <v>12</v>
+      </c>
+      <c r="Z37" s="25">
         <f t="shared" si="55"/>
-        <v>121</v>
-      </c>
-      <c r="Y37" s="21">
+        <v>-15.711064285978338</v>
+      </c>
+      <c r="AA37" s="26">
         <f t="shared" si="56"/>
-        <v>12</v>
-      </c>
-      <c r="Z37" s="25">
-        <f>BC37+(BD37*(1/12))-O37</f>
         <v>-15.711064285978338</v>
       </c>
-      <c r="AA37" s="26">
-        <f>BE37+(BF37*(1/12))-O37</f>
+      <c r="AB37" s="26">
+        <f t="shared" si="57"/>
         <v>-15.711064285978338</v>
       </c>
-      <c r="AB37" s="26">
-        <f>BG37+(BH37*(1/12))-O37</f>
-        <v>-15.711064285978338</v>
-      </c>
       <c r="AC37" s="26">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="AD37" s="26">
-        <f t="shared" si="58"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="AE37" s="27">
-        <f t="shared" si="59"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="AG37" s="13">
@@ -10781,71 +10788,71 @@
         <v>170</v>
       </c>
       <c r="O38">
-        <f t="shared" si="49"/>
+        <f t="shared" si="61"/>
         <v>15.711064285978338</v>
       </c>
       <c r="P38" s="13">
-        <f>AG38+(AH38*(1/12))-O38</f>
+        <f t="shared" si="45"/>
         <v>90.288935714021662</v>
       </c>
       <c r="Q38" s="14">
-        <f>AI38+(AJ38*(1/12))-O38</f>
+        <f t="shared" si="46"/>
         <v>74.288935714021662</v>
       </c>
       <c r="R38" s="14">
-        <f>AK38+(AL38*(1/12))-O38</f>
+        <f t="shared" si="47"/>
         <v>74.288935714021662</v>
       </c>
       <c r="S38" s="14">
-        <f t="shared" si="50"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="T38" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="63"/>
         <v>-29</v>
       </c>
       <c r="U38" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="64"/>
         <v>29</v>
       </c>
       <c r="V38" s="19">
-        <f t="shared" si="53"/>
+        <f t="shared" si="65"/>
         <v>106</v>
       </c>
       <c r="W38" s="20">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>-15</v>
       </c>
       <c r="X38" s="20">
+        <f t="shared" si="67"/>
+        <v>106</v>
+      </c>
+      <c r="Y38" s="21">
+        <f t="shared" si="68"/>
+        <v>15</v>
+      </c>
+      <c r="Z38" s="25">
         <f t="shared" si="55"/>
-        <v>106</v>
-      </c>
-      <c r="Y38" s="21">
+        <v>-15.711064285978338</v>
+      </c>
+      <c r="AA38" s="26">
         <f t="shared" si="56"/>
-        <v>15</v>
-      </c>
-      <c r="Z38" s="25">
-        <f>BC38+(BD38*(1/12))-O38</f>
         <v>-15.711064285978338</v>
       </c>
-      <c r="AA38" s="26">
-        <f>BE38+(BF38*(1/12))-O38</f>
+      <c r="AB38" s="26">
+        <f t="shared" si="57"/>
         <v>-15.711064285978338</v>
       </c>
-      <c r="AB38" s="26">
-        <f>BG38+(BH38*(1/12))-O38</f>
-        <v>-15.711064285978338</v>
-      </c>
       <c r="AC38" s="26">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="AD38" s="26">
-        <f t="shared" si="58"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="AE38" s="27">
-        <f t="shared" si="59"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="AG38" s="13">
@@ -10954,71 +10961,71 @@
         <v>170</v>
       </c>
       <c r="O39">
-        <f t="shared" si="49"/>
+        <f t="shared" si="61"/>
         <v>15.711064285978338</v>
       </c>
       <c r="P39" s="13">
-        <f>AG39+(AH39*(1/12))-O39</f>
+        <f t="shared" si="45"/>
         <v>85</v>
       </c>
       <c r="Q39" s="14">
-        <f>AI39+(AJ39*(1/12))-O39</f>
+        <f t="shared" si="46"/>
         <v>69.288935714021662</v>
       </c>
       <c r="R39" s="14">
-        <f>AK39+(AL39*(1/12))-O39</f>
+        <f t="shared" si="47"/>
         <v>69.288935714021662</v>
       </c>
       <c r="S39" s="14">
-        <f t="shared" si="50"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="T39" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="63"/>
         <v>-28</v>
       </c>
       <c r="U39" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="64"/>
         <v>28</v>
       </c>
       <c r="V39" s="19">
-        <f t="shared" si="53"/>
+        <f t="shared" si="65"/>
         <v>99</v>
       </c>
       <c r="W39" s="20">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>-26</v>
       </c>
       <c r="X39" s="20">
+        <f t="shared" si="67"/>
+        <v>99</v>
+      </c>
+      <c r="Y39" s="21">
+        <f t="shared" si="68"/>
+        <v>26</v>
+      </c>
+      <c r="Z39" s="25">
         <f t="shared" si="55"/>
-        <v>99</v>
-      </c>
-      <c r="Y39" s="21">
+        <v>-15.711064285978338</v>
+      </c>
+      <c r="AA39" s="26">
         <f t="shared" si="56"/>
-        <v>26</v>
-      </c>
-      <c r="Z39" s="25">
-        <f>BC39+(BD39*(1/12))-O39</f>
         <v>-15.711064285978338</v>
       </c>
-      <c r="AA39" s="26">
-        <f>BE39+(BF39*(1/12))-O39</f>
+      <c r="AB39" s="26">
+        <f t="shared" si="57"/>
         <v>-15.711064285978338</v>
       </c>
-      <c r="AB39" s="26">
-        <f>BG39+(BH39*(1/12))-O39</f>
-        <v>-15.711064285978338</v>
-      </c>
       <c r="AC39" s="26">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="AD39" s="26">
-        <f t="shared" si="58"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="AE39" s="27">
-        <f t="shared" si="59"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="AG39" s="13">
@@ -11128,71 +11135,71 @@
         <v>170</v>
       </c>
       <c r="O40">
-        <f t="shared" si="49"/>
+        <f t="shared" si="61"/>
         <v>15.711064285978338</v>
       </c>
       <c r="P40" s="13">
-        <f>AG40+(AH40*(1/12))-O40</f>
+        <f t="shared" si="45"/>
         <v>105</v>
       </c>
       <c r="Q40" s="14">
-        <f>AI40+(AJ40*(1/12))-O40</f>
+        <f t="shared" si="46"/>
         <v>89.288935714021662</v>
       </c>
       <c r="R40" s="14">
-        <f>AK40+(AL40*(1/12))-O40</f>
+        <f t="shared" si="47"/>
         <v>89.288935714021662</v>
       </c>
       <c r="S40" s="14">
-        <f t="shared" si="50"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="T40" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="63"/>
         <v>-30.25</v>
       </c>
       <c r="U40" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="64"/>
         <v>30.25</v>
       </c>
       <c r="V40" s="19">
-        <f t="shared" si="53"/>
+        <f t="shared" si="65"/>
         <v>122.5</v>
       </c>
       <c r="W40" s="20">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>-15.5</v>
       </c>
       <c r="X40" s="20">
+        <f t="shared" si="67"/>
+        <v>122.5</v>
+      </c>
+      <c r="Y40" s="21">
+        <f t="shared" si="68"/>
+        <v>15.5</v>
+      </c>
+      <c r="Z40" s="25">
         <f t="shared" si="55"/>
-        <v>122.5</v>
-      </c>
-      <c r="Y40" s="21">
+        <v>-15.711064285978338</v>
+      </c>
+      <c r="AA40" s="26">
         <f t="shared" si="56"/>
-        <v>15.5</v>
-      </c>
-      <c r="Z40" s="25">
-        <f>BC40+(BD40*(1/12))-O40</f>
         <v>-15.711064285978338</v>
       </c>
-      <c r="AA40" s="26">
-        <f>BE40+(BF40*(1/12))-O40</f>
+      <c r="AB40" s="26">
+        <f t="shared" si="57"/>
         <v>-15.711064285978338</v>
       </c>
-      <c r="AB40" s="26">
-        <f>BG40+(BH40*(1/12))-O40</f>
-        <v>-15.711064285978338</v>
-      </c>
       <c r="AC40" s="26">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="AD40" s="26">
-        <f t="shared" si="58"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="AE40" s="27">
-        <f t="shared" si="59"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="AG40" s="13">
@@ -11284,71 +11291,71 @@
         <v>170</v>
       </c>
       <c r="O41">
-        <f t="shared" si="49"/>
+        <f t="shared" si="61"/>
         <v>15.711064285978338</v>
       </c>
       <c r="P41" s="13">
-        <f>AG41+(AH41*(1/12))-O41</f>
+        <f t="shared" si="45"/>
         <v>64.288935714021662</v>
       </c>
       <c r="Q41" s="14">
-        <f>AI41+(AJ41*(1/12))-O41</f>
+        <f t="shared" si="46"/>
         <v>64.288935714021662</v>
       </c>
       <c r="R41" s="14">
-        <f>AK41+(AL41*(1/12))-O41</f>
+        <f t="shared" si="47"/>
         <v>64.288935714021662</v>
       </c>
       <c r="S41" s="14">
-        <f t="shared" si="50"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="T41" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="63"/>
         <v>-35</v>
       </c>
       <c r="U41" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="64"/>
         <v>35</v>
       </c>
       <c r="V41" s="19">
-        <f t="shared" si="53"/>
+        <f t="shared" si="65"/>
         <v>95</v>
       </c>
       <c r="W41" s="20">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>-25</v>
       </c>
       <c r="X41" s="20">
+        <f t="shared" si="67"/>
+        <v>95</v>
+      </c>
+      <c r="Y41" s="21">
+        <f t="shared" si="68"/>
+        <v>25</v>
+      </c>
+      <c r="Z41" s="25">
         <f t="shared" si="55"/>
-        <v>95</v>
-      </c>
-      <c r="Y41" s="21">
+        <v>-15.711064285978338</v>
+      </c>
+      <c r="AA41" s="26">
         <f t="shared" si="56"/>
-        <v>25</v>
-      </c>
-      <c r="Z41" s="25">
-        <f>BC41+(BD41*(1/12))-O41</f>
         <v>-15.711064285978338</v>
       </c>
-      <c r="AA41" s="26">
-        <f>BE41+(BF41*(1/12))-O41</f>
+      <c r="AB41" s="26">
+        <f t="shared" si="57"/>
         <v>-15.711064285978338</v>
       </c>
-      <c r="AB41" s="26">
-        <f>BG41+(BH41*(1/12))-O41</f>
-        <v>-15.711064285978338</v>
-      </c>
       <c r="AC41" s="26">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="AD41" s="26">
-        <f t="shared" si="58"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="AE41" s="27">
-        <f t="shared" si="59"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="AG41" s="13">
@@ -11457,71 +11464,71 @@
         <v>170</v>
       </c>
       <c r="O42">
-        <f t="shared" si="49"/>
+        <f t="shared" si="61"/>
         <v>15.711064285978338</v>
       </c>
       <c r="P42" s="13">
-        <f>AG42+(AH42*(1/12))-O42</f>
+        <f t="shared" si="45"/>
         <v>94.288935714021662</v>
       </c>
       <c r="Q42" s="14">
-        <f>AI42+(AJ42*(1/12))-O42</f>
+        <f t="shared" si="46"/>
         <v>94.288935714021662</v>
       </c>
       <c r="R42" s="14">
-        <f>AK42+(AL42*(1/12))-O42</f>
+        <f t="shared" si="47"/>
         <v>94.288935714021662</v>
       </c>
       <c r="S42" s="14">
-        <f t="shared" si="50"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="T42" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="63"/>
         <v>-34</v>
       </c>
       <c r="U42" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="64"/>
         <v>34</v>
       </c>
       <c r="V42" s="19">
-        <f t="shared" si="53"/>
+        <f t="shared" si="65"/>
         <v>124</v>
       </c>
       <c r="W42" s="20">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>-31</v>
       </c>
       <c r="X42" s="20">
+        <f t="shared" si="67"/>
+        <v>124</v>
+      </c>
+      <c r="Y42" s="21">
+        <f t="shared" si="68"/>
+        <v>31</v>
+      </c>
+      <c r="Z42" s="25">
         <f t="shared" si="55"/>
-        <v>124</v>
-      </c>
-      <c r="Y42" s="21">
+        <v>-15.711064285978338</v>
+      </c>
+      <c r="AA42" s="26">
         <f t="shared" si="56"/>
-        <v>31</v>
-      </c>
-      <c r="Z42" s="25">
-        <f>BC42+(BD42*(1/12))-O42</f>
         <v>-15.711064285978338</v>
       </c>
-      <c r="AA42" s="26">
-        <f>BE42+(BF42*(1/12))-O42</f>
+      <c r="AB42" s="26">
+        <f t="shared" si="57"/>
         <v>-15.711064285978338</v>
       </c>
-      <c r="AB42" s="26">
-        <f>BG42+(BH42*(1/12))-O42</f>
-        <v>-15.711064285978338</v>
-      </c>
       <c r="AC42" s="26">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="AD42" s="26">
-        <f t="shared" si="58"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="AE42" s="27">
-        <f t="shared" si="59"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="AG42" s="13">
@@ -11612,71 +11619,71 @@
         <v>170</v>
       </c>
       <c r="O43">
-        <f t="shared" si="49"/>
+        <f t="shared" si="61"/>
         <v>15.711064285978338</v>
       </c>
       <c r="P43" s="13">
-        <f>AG43+(AH43*(1/12))-O43</f>
+        <f t="shared" si="45"/>
         <v>94.288935714021662</v>
       </c>
       <c r="Q43" s="14">
-        <f>AI43+(AJ43*(1/12))-O43</f>
+        <f t="shared" si="46"/>
         <v>94.288935714021662</v>
       </c>
       <c r="R43" s="14">
-        <f>AK43+(AL43*(1/12))-O43</f>
+        <f t="shared" si="47"/>
         <v>94.288935714021662</v>
       </c>
       <c r="S43" s="14">
-        <f t="shared" si="50"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="T43" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="63"/>
         <v>-33</v>
       </c>
       <c r="U43" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="64"/>
         <v>33</v>
       </c>
       <c r="V43" s="19">
-        <f t="shared" si="53"/>
+        <f t="shared" si="65"/>
         <v>129</v>
       </c>
       <c r="W43" s="20">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>-20</v>
       </c>
       <c r="X43" s="20">
+        <f t="shared" si="67"/>
+        <v>129</v>
+      </c>
+      <c r="Y43" s="21">
+        <f t="shared" si="68"/>
+        <v>20</v>
+      </c>
+      <c r="Z43" s="25">
         <f t="shared" si="55"/>
-        <v>129</v>
-      </c>
-      <c r="Y43" s="21">
+        <v>-15.711064285978338</v>
+      </c>
+      <c r="AA43" s="26">
         <f t="shared" si="56"/>
-        <v>20</v>
-      </c>
-      <c r="Z43" s="25">
-        <f>BC43+(BD43*(1/12))-O43</f>
         <v>-15.711064285978338</v>
       </c>
-      <c r="AA43" s="26">
-        <f>BE43+(BF43*(1/12))-O43</f>
+      <c r="AB43" s="26">
+        <f t="shared" si="57"/>
         <v>-15.711064285978338</v>
       </c>
-      <c r="AB43" s="26">
-        <f>BG43+(BH43*(1/12))-O43</f>
-        <v>-15.711064285978338</v>
-      </c>
       <c r="AC43" s="26">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="AD43" s="26">
-        <f t="shared" si="58"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="AE43" s="27">
-        <f t="shared" si="59"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="AG43" s="13">
@@ -11785,71 +11792,71 @@
         <v>170</v>
       </c>
       <c r="O44">
-        <f t="shared" si="49"/>
+        <f t="shared" si="61"/>
         <v>15.711064285978338</v>
       </c>
       <c r="P44" s="13">
-        <f>AG44+(AH44*(1/12))-O44</f>
+        <f t="shared" si="45"/>
         <v>79.288935714021662</v>
       </c>
       <c r="Q44" s="14">
-        <f>AI44+(AJ44*(1/12))-O44</f>
+        <f t="shared" si="46"/>
         <v>79.288935714021662</v>
       </c>
       <c r="R44" s="14">
-        <f>AK44+(AL44*(1/12))-O44</f>
+        <f t="shared" si="47"/>
         <v>79.288935714021662</v>
       </c>
       <c r="S44" s="14">
-        <f t="shared" si="50"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="T44" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="63"/>
         <v>-32</v>
       </c>
       <c r="U44" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="64"/>
         <v>32</v>
       </c>
       <c r="V44" s="19">
-        <f t="shared" si="53"/>
+        <f t="shared" si="65"/>
         <v>109</v>
       </c>
       <c r="W44" s="20">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>-24</v>
       </c>
       <c r="X44" s="20">
+        <f t="shared" si="67"/>
+        <v>109</v>
+      </c>
+      <c r="Y44" s="21">
+        <f t="shared" si="68"/>
+        <v>24</v>
+      </c>
+      <c r="Z44" s="25">
         <f t="shared" si="55"/>
-        <v>109</v>
-      </c>
-      <c r="Y44" s="21">
+        <v>-15.711064285978338</v>
+      </c>
+      <c r="AA44" s="26">
         <f t="shared" si="56"/>
-        <v>24</v>
-      </c>
-      <c r="Z44" s="25">
-        <f>BC44+(BD44*(1/12))-O44</f>
         <v>-15.711064285978338</v>
       </c>
-      <c r="AA44" s="26">
-        <f>BE44+(BF44*(1/12))-O44</f>
+      <c r="AB44" s="26">
+        <f t="shared" si="57"/>
         <v>-15.711064285978338</v>
       </c>
-      <c r="AB44" s="26">
-        <f>BG44+(BH44*(1/12))-O44</f>
-        <v>-15.711064285978338</v>
-      </c>
       <c r="AC44" s="26">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="AD44" s="26">
-        <f t="shared" si="58"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="AE44" s="27">
-        <f t="shared" si="59"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="AG44" s="13">
@@ -11940,71 +11947,71 @@
         <v>170</v>
       </c>
       <c r="O45">
-        <f t="shared" si="49"/>
+        <f t="shared" si="61"/>
         <v>15.711064285978338</v>
       </c>
       <c r="P45" s="13">
-        <f>AG45+(AH45*(1/12))-O45</f>
+        <f t="shared" si="45"/>
         <v>94.288935714021662</v>
       </c>
       <c r="Q45" s="14">
-        <f>AI45+(AJ45*(1/12))-O45</f>
+        <f t="shared" si="46"/>
         <v>94.288935714021662</v>
       </c>
       <c r="R45" s="14">
-        <f>AK45+(AL45*(1/12))-O45</f>
+        <f t="shared" si="47"/>
         <v>94.288935714021662</v>
       </c>
       <c r="S45" s="14">
-        <f t="shared" si="50"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="T45" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="63"/>
         <v>-35</v>
       </c>
       <c r="U45" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="64"/>
         <v>35</v>
       </c>
       <c r="V45" s="19">
-        <f t="shared" si="53"/>
+        <f t="shared" si="65"/>
         <v>137</v>
       </c>
       <c r="W45" s="20">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>-26</v>
       </c>
       <c r="X45" s="20">
+        <f t="shared" si="67"/>
+        <v>137</v>
+      </c>
+      <c r="Y45" s="21">
+        <f t="shared" si="68"/>
+        <v>26</v>
+      </c>
+      <c r="Z45" s="25">
         <f t="shared" si="55"/>
-        <v>137</v>
-      </c>
-      <c r="Y45" s="21">
+        <v>-15.711064285978338</v>
+      </c>
+      <c r="AA45" s="26">
         <f t="shared" si="56"/>
-        <v>26</v>
-      </c>
-      <c r="Z45" s="25">
-        <f>BC45+(BD45*(1/12))-O45</f>
         <v>-15.711064285978338</v>
       </c>
-      <c r="AA45" s="26">
-        <f>BE45+(BF45*(1/12))-O45</f>
+      <c r="AB45" s="26">
+        <f t="shared" si="57"/>
         <v>-15.711064285978338</v>
       </c>
-      <c r="AB45" s="26">
-        <f>BG45+(BH45*(1/12))-O45</f>
-        <v>-15.711064285978338</v>
-      </c>
       <c r="AC45" s="26">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="AD45" s="26">
-        <f t="shared" si="58"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="AE45" s="27">
-        <f t="shared" si="59"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="AG45" s="13">
@@ -12113,71 +12120,71 @@
         <v>170</v>
       </c>
       <c r="O46">
-        <f t="shared" si="49"/>
+        <f t="shared" si="61"/>
         <v>15.711064285978338</v>
       </c>
       <c r="P46" s="13">
-        <f>AG46+(AH46*(1/12))-O46</f>
+        <f t="shared" si="45"/>
         <v>69.288935714021662</v>
       </c>
       <c r="Q46" s="14">
-        <f>AI46+(AJ46*(1/12))-O46</f>
+        <f t="shared" si="46"/>
         <v>100.28893571402166</v>
       </c>
       <c r="R46" s="14">
-        <f>AK46+(AL46*(1/12))-O46</f>
+        <f t="shared" si="47"/>
         <v>131.28893571402165</v>
       </c>
       <c r="S46" s="14">
-        <f t="shared" si="50"/>
+        <f t="shared" si="62"/>
         <v>-15</v>
       </c>
       <c r="T46" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="63"/>
         <v>-25</v>
       </c>
       <c r="U46" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="64"/>
         <v>-15</v>
       </c>
       <c r="V46" s="19">
-        <f t="shared" si="53"/>
+        <f t="shared" si="65"/>
         <v>172</v>
       </c>
       <c r="W46" s="20">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="X46" s="20">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="Y46" s="21">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="Z46" s="25">
         <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="Y46" s="21">
+        <v>131.28893571402165</v>
+      </c>
+      <c r="AA46" s="26">
         <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="Z46" s="25">
-        <f>BC46+(BD46*(1/12))-O46</f>
-        <v>131.28893571402165</v>
-      </c>
-      <c r="AA46" s="26">
-        <f>BE46+(BF46*(1/12))-O46</f>
         <v>100.28893571402166</v>
       </c>
       <c r="AB46" s="26">
-        <f>BG46+(BH46*(1/12))-O46</f>
+        <f t="shared" si="57"/>
         <v>69.288935714021662</v>
       </c>
       <c r="AC46" s="26">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
         <v>15</v>
       </c>
       <c r="AD46" s="26">
-        <f t="shared" si="58"/>
+        <f t="shared" si="70"/>
         <v>25</v>
       </c>
       <c r="AE46" s="27">
-        <f t="shared" si="59"/>
+        <f t="shared" si="71"/>
         <v>15</v>
       </c>
       <c r="AG46" s="13">
@@ -12326,71 +12333,71 @@
         <v>170</v>
       </c>
       <c r="O47">
-        <f t="shared" si="49"/>
+        <f t="shared" si="61"/>
         <v>15.711064285978338</v>
       </c>
       <c r="P47" s="13">
-        <f>AG47+(AH47*(1/12))-O47</f>
+        <f t="shared" si="45"/>
         <v>114.28893571402166</v>
       </c>
       <c r="Q47" s="14">
-        <f>AI47+(AJ47*(1/12))-O47</f>
+        <f t="shared" si="46"/>
         <v>69.288935714021662</v>
       </c>
       <c r="R47" s="14">
-        <f>AK47+(AL47*(1/12))-O47</f>
+        <f t="shared" si="47"/>
         <v>69.288935714021662</v>
       </c>
       <c r="S47" s="14">
-        <f t="shared" si="50"/>
+        <f t="shared" si="62"/>
         <v>-27.75</v>
       </c>
       <c r="T47" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="63"/>
         <v>-40.5</v>
       </c>
       <c r="U47" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="64"/>
         <v>-15</v>
       </c>
       <c r="V47" s="19">
-        <f t="shared" si="53"/>
+        <f t="shared" si="65"/>
         <v>150</v>
       </c>
       <c r="W47" s="20">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>-18.5</v>
       </c>
       <c r="X47" s="20">
+        <f t="shared" si="67"/>
+        <v>150</v>
+      </c>
+      <c r="Y47" s="21">
+        <f t="shared" si="68"/>
+        <v>18.5</v>
+      </c>
+      <c r="Z47" s="25">
         <f t="shared" si="55"/>
-        <v>150</v>
-      </c>
-      <c r="Y47" s="21">
+        <v>114.28893571402166</v>
+      </c>
+      <c r="AA47" s="26">
         <f t="shared" si="56"/>
-        <v>18.5</v>
-      </c>
-      <c r="Z47" s="25">
-        <f>BC47+(BD47*(1/12))-O47</f>
-        <v>114.28893571402166</v>
-      </c>
-      <c r="AA47" s="26">
-        <f>BE47+(BF47*(1/12))-O47</f>
         <v>69.288935714021662</v>
       </c>
       <c r="AB47" s="26">
-        <f>BG47+(BH47*(1/12))-O47</f>
+        <f t="shared" si="57"/>
         <v>69.288935714021662</v>
       </c>
       <c r="AC47" s="26">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
         <v>27.75</v>
       </c>
       <c r="AD47" s="26">
-        <f t="shared" si="58"/>
+        <f t="shared" si="70"/>
         <v>15</v>
       </c>
       <c r="AE47" s="27">
-        <f t="shared" si="59"/>
+        <f t="shared" si="71"/>
         <v>40.5</v>
       </c>
       <c r="AG47" s="13">
@@ -12521,71 +12528,71 @@
         <v>170</v>
       </c>
       <c r="O48">
-        <f t="shared" si="49"/>
+        <f t="shared" si="61"/>
         <v>15.711064285978338</v>
       </c>
       <c r="P48" s="13">
-        <f>AG48+(AH48*(1/12))-O48</f>
+        <f t="shared" si="45"/>
         <v>112.28893571402166</v>
       </c>
       <c r="Q48" s="14">
-        <f>AI48+(AJ48*(1/12))-O48</f>
+        <f t="shared" si="46"/>
         <v>74.288935714021662</v>
       </c>
       <c r="R48" s="14">
-        <f>AK48+(AL48*(1/12))-O48</f>
+        <f t="shared" si="47"/>
         <v>74.288935714021662</v>
       </c>
       <c r="S48" s="14">
-        <f t="shared" si="50"/>
+        <f t="shared" si="62"/>
         <v>-18.5</v>
       </c>
       <c r="T48" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="63"/>
         <v>-46.5</v>
       </c>
       <c r="U48" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="64"/>
         <v>-18.5</v>
       </c>
       <c r="V48" s="19">
-        <f t="shared" si="53"/>
+        <f t="shared" si="65"/>
         <v>140</v>
       </c>
       <c r="W48" s="20">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>-12.125</v>
       </c>
       <c r="X48" s="20">
+        <f t="shared" si="67"/>
+        <v>140</v>
+      </c>
+      <c r="Y48" s="21">
+        <f t="shared" si="68"/>
+        <v>15.125</v>
+      </c>
+      <c r="Z48" s="25">
         <f t="shared" si="55"/>
-        <v>140</v>
-      </c>
-      <c r="Y48" s="21">
+        <v>112.28893571402166</v>
+      </c>
+      <c r="AA48" s="26">
         <f t="shared" si="56"/>
-        <v>15.125</v>
-      </c>
-      <c r="Z48" s="25">
-        <f>BC48+(BD48*(1/12))-O48</f>
-        <v>112.28893571402166</v>
-      </c>
-      <c r="AA48" s="26">
-        <f>BE48+(BF48*(1/12))-O48</f>
         <v>74.288935714021662</v>
       </c>
       <c r="AB48" s="26">
-        <f>BG48+(BH48*(1/12))-O48</f>
+        <f t="shared" si="57"/>
         <v>74.288935714021662</v>
       </c>
       <c r="AC48" s="26">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
         <v>18.5</v>
       </c>
       <c r="AD48" s="26">
-        <f t="shared" si="58"/>
+        <f t="shared" si="70"/>
         <v>18.5</v>
       </c>
       <c r="AE48" s="27">
-        <f t="shared" si="59"/>
+        <f t="shared" si="71"/>
         <v>46.5</v>
       </c>
       <c r="AG48" s="13">
@@ -12716,71 +12723,71 @@
         <v>170</v>
       </c>
       <c r="O49">
-        <f t="shared" si="49"/>
+        <f t="shared" si="61"/>
         <v>15.711064285978338</v>
       </c>
       <c r="P49" s="13">
-        <f>AG49+(AH49*(1/12))-O49</f>
+        <f t="shared" si="45"/>
         <v>94.288935714021662</v>
       </c>
       <c r="Q49" s="14">
-        <f>AI49+(AJ49*(1/12))-O49</f>
+        <f t="shared" si="46"/>
         <v>94.288935714021662</v>
       </c>
       <c r="R49" s="14">
-        <f>AK49+(AL49*(1/12))-O49</f>
+        <f t="shared" si="47"/>
         <v>94.288935714021662</v>
       </c>
       <c r="S49" s="14">
-        <f t="shared" si="50"/>
+        <f t="shared" si="62"/>
         <v>-42</v>
       </c>
       <c r="T49" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="U49" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="64"/>
         <v>42</v>
       </c>
       <c r="V49" s="19">
-        <f t="shared" si="53"/>
+        <f t="shared" si="65"/>
         <v>128</v>
       </c>
       <c r="W49" s="20">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>-21.833333333333332</v>
       </c>
       <c r="X49" s="20">
+        <f t="shared" si="67"/>
+        <v>128</v>
+      </c>
+      <c r="Y49" s="21">
+        <f t="shared" si="68"/>
+        <v>21.833333333333332</v>
+      </c>
+      <c r="Z49" s="25">
         <f t="shared" si="55"/>
-        <v>128</v>
-      </c>
-      <c r="Y49" s="21">
+        <v>-15.711064285978338</v>
+      </c>
+      <c r="AA49" s="26">
         <f t="shared" si="56"/>
-        <v>21.833333333333332</v>
-      </c>
-      <c r="Z49" s="25">
-        <f>BC49+(BD49*(1/12))-O49</f>
         <v>-15.711064285978338</v>
       </c>
-      <c r="AA49" s="26">
-        <f>BE49+(BF49*(1/12))-O49</f>
+      <c r="AB49" s="26">
+        <f t="shared" si="57"/>
         <v>-15.711064285978338</v>
       </c>
-      <c r="AB49" s="26">
-        <f>BG49+(BH49*(1/12))-O49</f>
-        <v>-15.711064285978338</v>
-      </c>
       <c r="AC49" s="26">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="AD49" s="26">
-        <f t="shared" si="58"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="AE49" s="27">
-        <f t="shared" si="59"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="AG49" s="13">
@@ -12871,71 +12878,71 @@
         <v>170</v>
       </c>
       <c r="O50">
-        <f t="shared" si="49"/>
+        <f t="shared" si="61"/>
         <v>15.711064285978338</v>
       </c>
       <c r="P50" s="13">
-        <f>AG50+(AH50*(1/12))-O50</f>
+        <f t="shared" si="45"/>
         <v>69.288935714021662</v>
       </c>
       <c r="Q50" s="14">
-        <f>AI50+(AJ50*(1/12))-O50</f>
+        <f t="shared" si="46"/>
         <v>99.288935714021662</v>
       </c>
       <c r="R50" s="14">
-        <f>AK50+(AL50*(1/12))-O50</f>
+        <f t="shared" si="47"/>
         <v>129.28893571402165</v>
       </c>
       <c r="S50" s="14">
-        <f t="shared" si="50"/>
+        <f t="shared" si="62"/>
         <v>18</v>
       </c>
       <c r="T50" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="63"/>
         <v>21</v>
       </c>
       <c r="U50" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="64"/>
         <v>18</v>
       </c>
       <c r="V50" s="19">
-        <f t="shared" si="53"/>
+        <f t="shared" si="65"/>
         <v>160</v>
       </c>
       <c r="W50" s="20">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>4</v>
       </c>
       <c r="X50" s="20">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="Y50" s="21">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="Z50" s="25">
         <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="Y50" s="21">
+        <v>-15.711064285978338</v>
+      </c>
+      <c r="AA50" s="26">
         <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="Z50" s="25">
-        <f>BC50+(BD50*(1/12))-O50</f>
         <v>-15.711064285978338</v>
       </c>
-      <c r="AA50" s="26">
-        <f>BE50+(BF50*(1/12))-O50</f>
+      <c r="AB50" s="26">
+        <f t="shared" si="57"/>
         <v>-15.711064285978338</v>
       </c>
-      <c r="AB50" s="26">
-        <f>BG50+(BH50*(1/12))-O50</f>
-        <v>-15.711064285978338</v>
-      </c>
       <c r="AC50" s="26">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="AD50" s="26">
-        <f t="shared" si="58"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="AE50" s="27">
-        <f t="shared" si="59"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="AG50" s="13">
@@ -13028,71 +13035,71 @@
         <v>170</v>
       </c>
       <c r="O51">
-        <f t="shared" ref="O51:O56" si="60">((K51*L51)/M51)*N51*(1/304.8)</f>
+        <f t="shared" ref="O51:O56" si="72">((K51*L51)/M51)*N51*(1/304.8)</f>
         <v>15.711064285978338</v>
       </c>
       <c r="P51" s="13">
-        <f>AG51+(AH51*(1/12))-O51</f>
+        <f t="shared" si="45"/>
         <v>60.705602380688333</v>
       </c>
       <c r="Q51" s="14">
-        <f>AI51+(AJ51*(1/12))-O51</f>
+        <f t="shared" si="46"/>
         <v>73.288935714021662</v>
       </c>
       <c r="R51" s="14">
-        <f>AK51+(AL51*(1/12))-O51</f>
+        <f t="shared" si="47"/>
         <v>85.705602380688333</v>
       </c>
       <c r="S51" s="14">
-        <f t="shared" ref="S51:S56" si="61">AM51+(AN51*(1/12))</f>
+        <f t="shared" ref="S51:S56" si="73">AM51+(AN51*(1/12))</f>
         <v>18</v>
       </c>
       <c r="T51" s="14">
-        <f t="shared" ref="T51:T56" si="62">AO51+(AP51*(1/12))</f>
+        <f t="shared" ref="T51:T56" si="74">AO51+(AP51*(1/12))</f>
         <v>-17</v>
       </c>
       <c r="U51" s="15">
-        <f t="shared" ref="U51:U56" si="63">AQ51+(AR51*(1/12))</f>
+        <f t="shared" ref="U51:U56" si="75">AQ51+(AR51*(1/12))</f>
         <v>18</v>
       </c>
       <c r="V51" s="19">
-        <f t="shared" ref="V51:V56" si="64">AT51+((1/12)*AU51)</f>
+        <f t="shared" ref="V51:V56" si="76">AT51+((1/12)*AU51)</f>
         <v>120</v>
       </c>
       <c r="W51" s="20">
-        <f t="shared" ref="W51:W56" si="65">AV51+((1/12)*AW51)</f>
+        <f t="shared" ref="W51:W56" si="77">AV51+((1/12)*AW51)</f>
         <v>-10</v>
       </c>
       <c r="X51" s="20">
-        <f t="shared" ref="X51:X56" si="66">AX51+((1/12)*AY51)</f>
+        <f t="shared" ref="X51:X56" si="78">AX51+((1/12)*AY51)</f>
         <v>120</v>
       </c>
       <c r="Y51" s="21">
-        <f t="shared" ref="Y51:Y56" si="67">AZ51+((1/12)*BA51)</f>
+        <f t="shared" ref="Y51:Y56" si="79">AZ51+((1/12)*BA51)</f>
         <v>10</v>
       </c>
       <c r="Z51" s="25">
-        <f>BC51+(BD51*(1/12))-O51</f>
+        <f t="shared" si="55"/>
         <v>-15.711064285978338</v>
       </c>
       <c r="AA51" s="26">
-        <f>BE51+(BF51*(1/12))-O51</f>
+        <f t="shared" si="56"/>
         <v>-15.711064285978338</v>
       </c>
       <c r="AB51" s="26">
-        <f>BG51+(BH51*(1/12))-O51</f>
+        <f t="shared" si="57"/>
         <v>-15.711064285978338</v>
       </c>
       <c r="AC51" s="26">
-        <f t="shared" ref="AC51:AC56" si="68">BI51+(BJ51*(1/12))</f>
+        <f t="shared" ref="AC51:AC56" si="80">BI51+(BJ51*(1/12))</f>
         <v>0</v>
       </c>
       <c r="AD51" s="26">
-        <f t="shared" ref="AD51:AD56" si="69">BK51+(BL51*(1/12))</f>
+        <f t="shared" ref="AD51:AD56" si="81">BK51+(BL51*(1/12))</f>
         <v>0</v>
       </c>
       <c r="AE51" s="27">
-        <f t="shared" ref="AE51:AE56" si="70">BM51+(BN51*(1/12))</f>
+        <f t="shared" ref="AE51:AE56" si="82">BM51+(BN51*(1/12))</f>
         <v>0</v>
       </c>
       <c r="AG51" s="13">
@@ -13204,71 +13211,71 @@
         <v>170</v>
       </c>
       <c r="O52">
-        <f t="shared" si="60"/>
+        <f t="shared" si="72"/>
         <v>15.711064285978338</v>
       </c>
       <c r="P52" s="13">
-        <f>AG52+(AH52*(1/12))-O52</f>
+        <f t="shared" si="45"/>
         <v>104.28893571402166</v>
       </c>
       <c r="Q52" s="14">
-        <f>AI52+(AJ52*(1/12))-O52</f>
+        <f t="shared" si="46"/>
         <v>104.28893571402166</v>
       </c>
       <c r="R52" s="14">
-        <f>AK52+(AL52*(1/12))-O52</f>
+        <f t="shared" si="47"/>
         <v>104.28893571402166</v>
       </c>
       <c r="S52" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>-35</v>
       </c>
       <c r="T52" s="14">
-        <f t="shared" si="62"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="U52" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="75"/>
         <v>35</v>
       </c>
       <c r="V52" s="19">
-        <f t="shared" si="64"/>
+        <f t="shared" si="76"/>
         <v>129</v>
       </c>
       <c r="W52" s="20">
-        <f t="shared" si="65"/>
+        <f t="shared" si="77"/>
         <v>-26</v>
       </c>
       <c r="X52" s="20">
-        <f t="shared" si="66"/>
+        <f t="shared" si="78"/>
         <v>129</v>
       </c>
       <c r="Y52" s="21">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>26</v>
       </c>
       <c r="Z52" s="25">
-        <f>BC52+(BD52*(1/12))-O52</f>
+        <f t="shared" si="55"/>
         <v>-15.711064285978338</v>
       </c>
       <c r="AA52" s="26">
-        <f>BE52+(BF52*(1/12))-O52</f>
+        <f t="shared" si="56"/>
         <v>-15.711064285978338</v>
       </c>
       <c r="AB52" s="26">
-        <f>BG52+(BH52*(1/12))-O52</f>
+        <f t="shared" si="57"/>
         <v>-15.711064285978338</v>
       </c>
       <c r="AC52" s="26">
-        <f t="shared" si="68"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="AD52" s="26">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="AE52" s="27">
-        <f t="shared" si="70"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="AG52" s="13">
@@ -13360,71 +13367,71 @@
         <v>170</v>
       </c>
       <c r="O53">
-        <f t="shared" si="60"/>
+        <f t="shared" si="72"/>
         <v>15.711064285978338</v>
       </c>
       <c r="P53" s="13">
-        <f>AG53+(AH53*(1/12))-O53</f>
+        <f t="shared" si="45"/>
         <v>123.00000000000001</v>
       </c>
       <c r="Q53" s="14">
-        <f>AI53+(AJ53*(1/12))-O53</f>
+        <f t="shared" si="46"/>
         <v>87</v>
       </c>
       <c r="R53" s="14">
-        <f>AK53+(AL53*(1/12))-O53</f>
+        <f t="shared" si="47"/>
         <v>87</v>
       </c>
       <c r="S53" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>-30</v>
       </c>
       <c r="T53" s="14">
-        <f t="shared" si="62"/>
+        <f t="shared" si="74"/>
         <v>-45</v>
       </c>
       <c r="U53" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="75"/>
         <v>-15</v>
       </c>
       <c r="V53" s="19">
-        <f t="shared" si="64"/>
+        <f t="shared" si="76"/>
         <v>149</v>
       </c>
       <c r="W53" s="20">
-        <f t="shared" si="65"/>
+        <f t="shared" si="77"/>
         <v>-32</v>
       </c>
       <c r="X53" s="20">
-        <f t="shared" si="66"/>
+        <f t="shared" si="78"/>
         <v>149</v>
       </c>
       <c r="Y53" s="21">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>32</v>
       </c>
       <c r="Z53" s="25">
-        <f>BC53+(BD53*(1/12))-O53</f>
+        <f t="shared" si="55"/>
         <v>123.00000000000001</v>
       </c>
       <c r="AA53" s="26">
-        <f>BE53+(BF53*(1/12))-O53</f>
+        <f t="shared" si="56"/>
         <v>87</v>
       </c>
       <c r="AB53" s="26">
-        <f>BG53+(BH53*(1/12))-O53</f>
+        <f t="shared" si="57"/>
         <v>87</v>
       </c>
       <c r="AC53" s="26">
-        <f t="shared" si="68"/>
+        <f t="shared" si="80"/>
         <v>15</v>
       </c>
       <c r="AD53" s="26">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>45</v>
       </c>
       <c r="AE53" s="27">
-        <f t="shared" si="70"/>
+        <f t="shared" si="82"/>
         <v>15</v>
       </c>
       <c r="AG53" s="13">
@@ -13559,71 +13566,71 @@
         <v>170</v>
       </c>
       <c r="O54">
-        <f t="shared" si="60"/>
+        <f t="shared" si="72"/>
         <v>15.711064285978338</v>
       </c>
       <c r="P54" s="13">
-        <f>AG54+(AH54*(1/12))-O54</f>
+        <f t="shared" si="45"/>
         <v>106.25</v>
       </c>
       <c r="Q54" s="14">
-        <f>AI54+(AJ54*(1/12))-O54</f>
+        <f t="shared" si="46"/>
         <v>139.25</v>
       </c>
       <c r="R54" s="14">
-        <f>AK54+(AL54*(1/12))-O54</f>
+        <f t="shared" si="47"/>
         <v>106.25</v>
       </c>
       <c r="S54" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>-21.5</v>
       </c>
       <c r="T54" s="14">
-        <f t="shared" si="62"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="U54" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="75"/>
         <v>21.5</v>
       </c>
       <c r="V54" s="19">
-        <f t="shared" si="64"/>
+        <f t="shared" si="76"/>
         <v>153</v>
       </c>
       <c r="W54" s="20">
-        <f t="shared" si="65"/>
+        <f t="shared" si="77"/>
         <v>-13.75</v>
       </c>
       <c r="X54" s="20">
-        <f t="shared" si="66"/>
+        <f t="shared" si="78"/>
         <v>153</v>
       </c>
       <c r="Y54" s="21">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>13.75</v>
       </c>
       <c r="Z54" s="25">
-        <f>BC54+(BD54*(1/12))-O54</f>
+        <f t="shared" si="55"/>
         <v>-15.711064285978338</v>
       </c>
       <c r="AA54" s="26">
-        <f>BE54+(BF54*(1/12))-O54</f>
+        <f t="shared" si="56"/>
         <v>-15.711064285978338</v>
       </c>
       <c r="AB54" s="26">
-        <f>BG54+(BH54*(1/12))-O54</f>
+        <f t="shared" si="57"/>
         <v>-15.711064285978338</v>
       </c>
       <c r="AC54" s="26">
-        <f t="shared" si="68"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="AD54" s="26">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="AE54" s="27">
-        <f t="shared" si="70"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="AG54" s="13">
@@ -13736,71 +13743,71 @@
         <v>170</v>
       </c>
       <c r="O55">
-        <f t="shared" si="60"/>
+        <f t="shared" si="72"/>
         <v>15.711064285978338</v>
       </c>
       <c r="P55" s="13">
-        <f>AG55+(AH55*(1/12))-O55</f>
+        <f t="shared" si="45"/>
         <v>118.50000000000001</v>
       </c>
       <c r="Q55" s="14">
-        <f>AI55+(AJ55*(1/12))-O55</f>
+        <f t="shared" si="46"/>
         <v>88</v>
       </c>
       <c r="R55" s="14">
-        <f>AK55+(AL55*(1/12))-O55</f>
+        <f t="shared" si="47"/>
         <v>88</v>
       </c>
       <c r="S55" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="T55" s="14">
-        <f t="shared" si="62"/>
+        <f t="shared" si="74"/>
         <v>-21.5</v>
       </c>
       <c r="U55" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="75"/>
         <v>21.5</v>
       </c>
       <c r="V55" s="19">
-        <f t="shared" si="64"/>
+        <f t="shared" si="76"/>
         <v>131.5</v>
       </c>
       <c r="W55" s="20">
-        <f t="shared" si="65"/>
+        <f t="shared" si="77"/>
         <v>-20</v>
       </c>
       <c r="X55" s="20">
-        <f t="shared" si="66"/>
+        <f t="shared" si="78"/>
         <v>131.5</v>
       </c>
       <c r="Y55" s="21">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>20</v>
       </c>
       <c r="Z55" s="25">
-        <f>BC55+(BD55*(1/12))-O55</f>
+        <f t="shared" si="55"/>
         <v>-15.711064285978338</v>
       </c>
       <c r="AA55" s="26">
-        <f>BE55+(BF55*(1/12))-O55</f>
+        <f t="shared" si="56"/>
         <v>-15.711064285978338</v>
       </c>
       <c r="AB55" s="26">
-        <f>BG55+(BH55*(1/12))-O55</f>
+        <f t="shared" si="57"/>
         <v>-15.711064285978338</v>
       </c>
       <c r="AC55" s="26">
-        <f t="shared" si="68"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="AD55" s="26">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="AE55" s="27">
-        <f t="shared" si="70"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="AG55" s="13">
@@ -13913,71 +13920,71 @@
         <v>170</v>
       </c>
       <c r="O56">
-        <f t="shared" si="60"/>
+        <f t="shared" si="72"/>
         <v>15.711064285978338</v>
       </c>
       <c r="P56" s="13">
-        <f>AG56+(AH56*(1/12))-O56</f>
+        <f t="shared" si="45"/>
         <v>151.25</v>
       </c>
       <c r="Q56" s="14">
-        <f>AI56+(AJ56*(1/12))-O56</f>
+        <f t="shared" si="46"/>
         <v>126.00000000000001</v>
       </c>
       <c r="R56" s="14">
-        <f>AK56+(AL56*(1/12))-O56</f>
+        <f t="shared" si="47"/>
         <v>126.00000000000001</v>
       </c>
       <c r="S56" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="T56" s="14">
-        <f t="shared" si="62"/>
+        <f t="shared" si="74"/>
         <v>-21</v>
       </c>
       <c r="U56" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="75"/>
         <v>21</v>
       </c>
       <c r="V56" s="19">
-        <f t="shared" si="64"/>
+        <f t="shared" si="76"/>
         <v>165.25</v>
       </c>
       <c r="W56" s="20">
-        <f t="shared" si="65"/>
+        <f t="shared" si="77"/>
         <v>-17.5</v>
       </c>
       <c r="X56" s="20">
-        <f t="shared" si="66"/>
+        <f t="shared" si="78"/>
         <v>165.25</v>
       </c>
       <c r="Y56" s="21">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>17.5</v>
       </c>
       <c r="Z56" s="25">
-        <f>BC56+(BD56*(1/12))-O56</f>
+        <f t="shared" si="55"/>
         <v>-15.711064285978338</v>
       </c>
       <c r="AA56" s="26">
-        <f>BE56+(BF56*(1/12))-O56</f>
+        <f t="shared" si="56"/>
         <v>-15.711064285978338</v>
       </c>
       <c r="AB56" s="26">
-        <f>BG56+(BH56*(1/12))-O56</f>
+        <f t="shared" si="57"/>
         <v>-15.711064285978338</v>
       </c>
       <c r="AC56" s="26">
-        <f t="shared" si="68"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="AD56" s="26">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="AE56" s="27">
-        <f t="shared" si="70"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="AG56" s="13">
@@ -14072,71 +14079,71 @@
         <v>170</v>
       </c>
       <c r="O57">
-        <f t="shared" ref="O57:O64" si="71">((K57*L57)/M57)*N57*(1/304.8)</f>
+        <f t="shared" ref="O57:O64" si="83">((K57*L57)/M57)*N57*(1/304.8)</f>
         <v>23.095264500388154</v>
       </c>
       <c r="P57" s="13">
-        <f>AG57+(AH57*(1/12))-O57</f>
+        <f t="shared" si="45"/>
         <v>92</v>
       </c>
       <c r="Q57" s="14">
-        <f>AI57+(AJ57*(1/12))-O57</f>
+        <f t="shared" si="46"/>
         <v>92</v>
       </c>
       <c r="R57" s="14">
-        <f>AK57+(AL57*(1/12))-O57</f>
+        <f t="shared" si="47"/>
         <v>92</v>
       </c>
       <c r="S57" s="14">
-        <f t="shared" ref="S57:S64" si="72">AM57+(AN57*(1/12))</f>
+        <f t="shared" ref="S57:S64" si="84">AM57+(AN57*(1/12))</f>
         <v>-44.5</v>
       </c>
       <c r="T57" s="14">
-        <f t="shared" ref="T57:T64" si="73">AO57+(AP57*(1/12))</f>
+        <f t="shared" ref="T57:T64" si="85">AO57+(AP57*(1/12))</f>
         <v>0</v>
       </c>
       <c r="U57" s="15">
-        <f t="shared" ref="U57:U64" si="74">AQ57+(AR57*(1/12))</f>
+        <f t="shared" ref="U57:U64" si="86">AQ57+(AR57*(1/12))</f>
         <v>44.5</v>
       </c>
       <c r="V57" s="19">
-        <f t="shared" ref="V57:V64" si="75">AT57+((1/12)*AU57)</f>
+        <f t="shared" ref="V57:V64" si="87">AT57+((1/12)*AU57)</f>
         <v>127</v>
       </c>
       <c r="W57" s="20">
-        <f t="shared" ref="W57:W64" si="76">AV57+((1/12)*AW57)</f>
+        <f t="shared" ref="W57:W64" si="88">AV57+((1/12)*AW57)</f>
         <v>-36</v>
       </c>
       <c r="X57" s="20">
-        <f t="shared" ref="X57:X64" si="77">AX57+((1/12)*AY57)</f>
+        <f t="shared" ref="X57:X64" si="89">AX57+((1/12)*AY57)</f>
         <v>127</v>
       </c>
       <c r="Y57" s="21">
-        <f t="shared" ref="Y57:Y64" si="78">AZ57+((1/12)*BA57)</f>
+        <f t="shared" ref="Y57:Y64" si="90">AZ57+((1/12)*BA57)</f>
         <v>36</v>
       </c>
       <c r="Z57" s="25">
-        <f>BC57+(BD57*(1/12))-O57</f>
+        <f t="shared" si="55"/>
         <v>-23.095264500388154</v>
       </c>
       <c r="AA57" s="26">
-        <f>BE57+(BF57*(1/12))-O57</f>
+        <f t="shared" si="56"/>
         <v>-23.095264500388154</v>
       </c>
       <c r="AB57" s="26">
-        <f>BG57+(BH57*(1/12))-O57</f>
+        <f t="shared" si="57"/>
         <v>-23.095264500388154</v>
       </c>
       <c r="AC57" s="26">
-        <f t="shared" ref="AC57:AC64" si="79">BI57+(BJ57*(1/12))</f>
+        <f t="shared" ref="AC57:AC64" si="91">BI57+(BJ57*(1/12))</f>
         <v>0</v>
       </c>
       <c r="AD57" s="26">
-        <f t="shared" ref="AD57:AD64" si="80">BK57+(BL57*(1/12))</f>
+        <f t="shared" ref="AD57:AD64" si="92">BK57+(BL57*(1/12))</f>
         <v>0</v>
       </c>
       <c r="AE57" s="27">
-        <f t="shared" ref="AE57:AE64" si="81">BM57+(BN57*(1/12))</f>
+        <f t="shared" ref="AE57:AE64" si="93">BM57+(BN57*(1/12))</f>
         <v>0</v>
       </c>
       <c r="AG57" s="13">
@@ -14230,71 +14237,71 @@
         <v>170</v>
       </c>
       <c r="O58">
-        <f t="shared" si="71"/>
+        <f t="shared" si="83"/>
         <v>23.095264500388154</v>
       </c>
       <c r="P58" s="13">
-        <f>AG58+(AH58*(1/12))-O58</f>
+        <f t="shared" si="45"/>
         <v>86.904735499611846</v>
       </c>
       <c r="Q58" s="14">
-        <f>AI58+(AJ58*(1/12))-O58</f>
+        <f t="shared" si="46"/>
         <v>86.904735499611846</v>
       </c>
       <c r="R58" s="14">
-        <f>AK58+(AL58*(1/12))-O58</f>
+        <f t="shared" si="47"/>
         <v>86.904735499611846</v>
       </c>
       <c r="S58" s="14">
-        <f t="shared" si="72"/>
+        <f t="shared" si="84"/>
         <v>-45</v>
       </c>
       <c r="T58" s="14">
-        <f t="shared" si="73"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="U58" s="15">
-        <f t="shared" si="74"/>
+        <f t="shared" si="86"/>
         <v>45</v>
       </c>
       <c r="V58" s="19">
-        <f t="shared" si="75"/>
+        <f t="shared" si="87"/>
         <v>138.66666666666666</v>
       </c>
       <c r="W58" s="20">
-        <f t="shared" si="76"/>
+        <f t="shared" si="88"/>
         <v>-50</v>
       </c>
       <c r="X58" s="20">
-        <f t="shared" si="77"/>
+        <f t="shared" si="89"/>
         <v>138.66666666666666</v>
       </c>
       <c r="Y58" s="21">
-        <f t="shared" si="78"/>
+        <f t="shared" si="90"/>
         <v>50</v>
       </c>
       <c r="Z58" s="25">
-        <f>BC58+(BD58*(1/12))-O58</f>
+        <f t="shared" si="55"/>
         <v>-23.095264500388154</v>
       </c>
       <c r="AA58" s="26">
-        <f>BE58+(BF58*(1/12))-O58</f>
+        <f t="shared" si="56"/>
         <v>-23.095264500388154</v>
       </c>
       <c r="AB58" s="26">
-        <f>BG58+(BH58*(1/12))-O58</f>
+        <f t="shared" si="57"/>
         <v>-23.095264500388154</v>
       </c>
       <c r="AC58" s="26">
-        <f t="shared" si="79"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="AD58" s="26">
-        <f t="shared" si="80"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AE58" s="27">
-        <f t="shared" si="81"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="AG58" s="13">
@@ -14385,71 +14392,71 @@
         <v>170</v>
       </c>
       <c r="O59">
-        <f t="shared" si="71"/>
+        <f t="shared" si="83"/>
         <v>23.095264500388154</v>
       </c>
       <c r="P59" s="13">
-        <f>AG59+(AH59*(1/12))-O59</f>
+        <f t="shared" si="45"/>
         <v>135</v>
       </c>
       <c r="Q59" s="14">
-        <f>AI59+(AJ59*(1/12))-O59</f>
+        <f t="shared" si="46"/>
         <v>135</v>
       </c>
       <c r="R59" s="14">
-        <f>AK59+(AL59*(1/12))-O59</f>
+        <f t="shared" si="47"/>
         <v>135</v>
       </c>
       <c r="S59" s="14">
-        <f t="shared" si="72"/>
+        <f t="shared" si="84"/>
         <v>-41.833333333333336</v>
       </c>
       <c r="T59" s="14">
-        <f t="shared" si="73"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="U59" s="15">
-        <f t="shared" si="74"/>
+        <f t="shared" si="86"/>
         <v>41.833333333333336</v>
       </c>
       <c r="V59" s="19">
-        <f t="shared" si="75"/>
+        <f t="shared" si="87"/>
         <v>175</v>
       </c>
       <c r="W59" s="20">
-        <f t="shared" si="76"/>
+        <f t="shared" si="88"/>
         <v>-30</v>
       </c>
       <c r="X59" s="20">
-        <f t="shared" si="77"/>
+        <f t="shared" si="89"/>
         <v>175</v>
       </c>
       <c r="Y59" s="21">
-        <f t="shared" si="78"/>
+        <f t="shared" si="90"/>
         <v>30</v>
       </c>
       <c r="Z59" s="25">
-        <f>BC59+(BD59*(1/12))-O59</f>
+        <f t="shared" si="55"/>
         <v>-23.095264500388154</v>
       </c>
       <c r="AA59" s="26">
-        <f>BE59+(BF59*(1/12))-O59</f>
+        <f t="shared" si="56"/>
         <v>-23.095264500388154</v>
       </c>
       <c r="AB59" s="26">
-        <f>BG59+(BH59*(1/12))-O59</f>
+        <f t="shared" si="57"/>
         <v>-23.095264500388154</v>
       </c>
       <c r="AC59" s="26">
-        <f t="shared" si="79"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="AD59" s="26">
-        <f t="shared" si="80"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AE59" s="27">
-        <f t="shared" si="81"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="AG59" s="13">
@@ -14543,71 +14550,71 @@
         <v>170</v>
       </c>
       <c r="O60">
-        <f t="shared" si="71"/>
+        <f t="shared" si="83"/>
         <v>23.095264500388154</v>
       </c>
       <c r="P60" s="13">
-        <f>AG60+(AH60*(1/12))-O60</f>
+        <f t="shared" si="45"/>
         <v>100.90473549961185</v>
       </c>
       <c r="Q60" s="14">
-        <f>AI60+(AJ60*(1/12))-O60</f>
+        <f t="shared" si="46"/>
         <v>100.90473549961185</v>
       </c>
       <c r="R60" s="14">
-        <f>AK60+(AL60*(1/12))-O60</f>
+        <f t="shared" si="47"/>
         <v>100.90473549961185</v>
       </c>
       <c r="S60" s="14">
-        <f t="shared" si="72"/>
+        <f t="shared" si="84"/>
         <v>-39.333333333333336</v>
       </c>
       <c r="T60" s="14">
-        <f t="shared" si="73"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="U60" s="15">
-        <f t="shared" si="74"/>
+        <f t="shared" si="86"/>
         <v>39.333333333333336</v>
       </c>
       <c r="V60" s="19">
-        <f t="shared" si="75"/>
+        <f t="shared" si="87"/>
         <v>145</v>
       </c>
       <c r="W60" s="20">
-        <f t="shared" si="76"/>
+        <f t="shared" si="88"/>
         <v>-66</v>
       </c>
       <c r="X60" s="20">
-        <f t="shared" si="77"/>
+        <f t="shared" si="89"/>
         <v>145</v>
       </c>
       <c r="Y60" s="21">
-        <f t="shared" si="78"/>
+        <f t="shared" si="90"/>
         <v>66</v>
       </c>
       <c r="Z60" s="25">
-        <f>BC60+(BD60*(1/12))-O60</f>
+        <f t="shared" si="55"/>
         <v>-23.095264500388154</v>
       </c>
       <c r="AA60" s="26">
-        <f>BE60+(BF60*(1/12))-O60</f>
+        <f t="shared" si="56"/>
         <v>-23.095264500388154</v>
       </c>
       <c r="AB60" s="26">
-        <f>BG60+(BH60*(1/12))-O60</f>
+        <f t="shared" si="57"/>
         <v>-23.095264500388154</v>
       </c>
       <c r="AC60" s="26">
-        <f t="shared" si="79"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="AD60" s="26">
-        <f t="shared" si="80"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AE60" s="27">
-        <f t="shared" si="81"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="AG60" s="13">
@@ -14698,71 +14705,71 @@
         <v>170</v>
       </c>
       <c r="O61">
-        <f t="shared" si="71"/>
+        <f t="shared" si="83"/>
         <v>23.095264500388154</v>
       </c>
       <c r="P61" s="13">
-        <f>AG61+(AH61*(1/12))-O61</f>
+        <f t="shared" si="45"/>
         <v>131</v>
       </c>
       <c r="Q61" s="14">
-        <f>AI61+(AJ61*(1/12))-O61</f>
+        <f t="shared" si="46"/>
         <v>131</v>
       </c>
       <c r="R61" s="14">
-        <f>AK61+(AL61*(1/12))-O61</f>
+        <f t="shared" si="47"/>
         <v>131</v>
       </c>
       <c r="S61" s="14">
-        <f t="shared" si="72"/>
+        <f t="shared" si="84"/>
         <v>-50</v>
       </c>
       <c r="T61" s="14">
-        <f t="shared" si="73"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="U61" s="15">
-        <f t="shared" si="74"/>
+        <f t="shared" si="86"/>
         <v>50</v>
       </c>
       <c r="V61" s="19">
-        <f t="shared" si="75"/>
+        <f t="shared" si="87"/>
         <v>175</v>
       </c>
       <c r="W61" s="20">
-        <f t="shared" si="76"/>
+        <f t="shared" si="88"/>
         <v>-30</v>
       </c>
       <c r="X61" s="20">
-        <f t="shared" si="77"/>
+        <f t="shared" si="89"/>
         <v>175</v>
       </c>
       <c r="Y61" s="21">
-        <f t="shared" si="78"/>
+        <f t="shared" si="90"/>
         <v>30</v>
       </c>
       <c r="Z61" s="25">
-        <f>BC61+(BD61*(1/12))-O61</f>
+        <f t="shared" si="55"/>
         <v>-23.095264500388154</v>
       </c>
       <c r="AA61" s="26">
-        <f>BE61+(BF61*(1/12))-O61</f>
+        <f t="shared" si="56"/>
         <v>-23.095264500388154</v>
       </c>
       <c r="AB61" s="26">
-        <f>BG61+(BH61*(1/12))-O61</f>
+        <f t="shared" si="57"/>
         <v>-23.095264500388154</v>
       </c>
       <c r="AC61" s="26">
-        <f t="shared" si="79"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="AD61" s="26">
-        <f t="shared" si="80"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AE61" s="27">
-        <f t="shared" si="81"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="AG61" s="13">
@@ -14855,71 +14862,71 @@
         <v>170</v>
       </c>
       <c r="O62">
-        <f t="shared" si="71"/>
+        <f t="shared" si="83"/>
         <v>23.095264500388154</v>
       </c>
       <c r="P62" s="13">
-        <f>AG62+(AH62*(1/12))-O62</f>
+        <f t="shared" si="45"/>
         <v>110.00000000000001</v>
       </c>
       <c r="Q62" s="14">
-        <f>AI62+(AJ62*(1/12))-O62</f>
+        <f t="shared" si="46"/>
         <v>110.00000000000001</v>
       </c>
       <c r="R62" s="14">
-        <f>AK62+(AL62*(1/12))-O62</f>
+        <f t="shared" si="47"/>
         <v>110.00000000000001</v>
       </c>
       <c r="S62" s="14">
-        <f t="shared" si="72"/>
+        <f t="shared" si="84"/>
         <v>-39.333333333333336</v>
       </c>
       <c r="T62" s="14">
-        <f t="shared" si="73"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="U62" s="15">
-        <f t="shared" si="74"/>
+        <f t="shared" si="86"/>
         <v>39.333333333333336</v>
       </c>
       <c r="V62" s="19">
-        <f t="shared" si="75"/>
+        <f t="shared" si="87"/>
         <v>150</v>
       </c>
       <c r="W62" s="20">
-        <f t="shared" si="76"/>
+        <f t="shared" si="88"/>
         <v>-30</v>
       </c>
       <c r="X62" s="20">
-        <f t="shared" si="77"/>
+        <f t="shared" si="89"/>
         <v>150</v>
       </c>
       <c r="Y62" s="21">
-        <f t="shared" si="78"/>
+        <f t="shared" si="90"/>
         <v>30</v>
       </c>
       <c r="Z62" s="25">
-        <f>BC62+(BD62*(1/12))-O62</f>
+        <f t="shared" si="55"/>
         <v>-23.095264500388154</v>
       </c>
       <c r="AA62" s="26">
-        <f>BE62+(BF62*(1/12))-O62</f>
+        <f t="shared" si="56"/>
         <v>-23.095264500388154</v>
       </c>
       <c r="AB62" s="26">
-        <f>BG62+(BH62*(1/12))-O62</f>
+        <f t="shared" si="57"/>
         <v>-23.095264500388154</v>
       </c>
       <c r="AC62" s="26">
-        <f t="shared" si="79"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="AD62" s="26">
-        <f t="shared" si="80"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AE62" s="27">
-        <f t="shared" si="81"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="AG62" s="13">
@@ -15003,71 +15010,71 @@
         <v>170</v>
       </c>
       <c r="O63">
-        <f t="shared" si="71"/>
+        <f t="shared" si="83"/>
         <v>23.095264500388154</v>
       </c>
       <c r="P63" s="13">
-        <f>AG63+(AH63*(1/12))-O63</f>
+        <f t="shared" si="45"/>
         <v>-23.095264500388154</v>
       </c>
       <c r="Q63" s="14">
-        <f>AI63+(AJ63*(1/12))-O63</f>
+        <f t="shared" si="46"/>
         <v>-23.095264500388154</v>
       </c>
       <c r="R63" s="14">
-        <f>AK63+(AL63*(1/12))-O63</f>
+        <f t="shared" si="47"/>
         <v>-23.095264500388154</v>
       </c>
       <c r="S63" s="14">
-        <f t="shared" si="72"/>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="T63" s="14">
-        <f t="shared" si="73"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="U63" s="15">
-        <f t="shared" si="74"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="V63" s="19">
-        <f t="shared" si="75"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="W63" s="20">
-        <f t="shared" si="76"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="X63" s="20">
-        <f t="shared" si="77"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="Y63" s="21">
-        <f t="shared" si="78"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="Z63" s="25">
-        <f>BC63+(BD63*(1/12))-O63</f>
+        <f t="shared" si="55"/>
         <v>-23.095264500388154</v>
       </c>
       <c r="AA63" s="26">
-        <f>BE63+(BF63*(1/12))-O63</f>
+        <f t="shared" si="56"/>
         <v>-23.095264500388154</v>
       </c>
       <c r="AB63" s="26">
-        <f>BG63+(BH63*(1/12))-O63</f>
+        <f t="shared" si="57"/>
         <v>-23.095264500388154</v>
       </c>
       <c r="AC63" s="26">
-        <f t="shared" si="79"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="AD63" s="26">
-        <f t="shared" si="80"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AE63" s="27">
-        <f t="shared" si="81"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
     </row>
@@ -15088,71 +15095,71 @@
         <v>170</v>
       </c>
       <c r="O64">
-        <f t="shared" si="71"/>
+        <f t="shared" si="83"/>
         <v>23.095264500388154</v>
       </c>
       <c r="P64" s="13">
-        <f>AG64+(AH64*(1/12))-O64</f>
+        <f t="shared" si="45"/>
         <v>-23.095264500388154</v>
       </c>
       <c r="Q64" s="14">
-        <f>AI64+(AJ64*(1/12))-O64</f>
+        <f t="shared" si="46"/>
         <v>-23.095264500388154</v>
       </c>
       <c r="R64" s="14">
-        <f>AK64+(AL64*(1/12))-O64</f>
+        <f t="shared" si="47"/>
         <v>-23.095264500388154</v>
       </c>
       <c r="S64" s="14">
-        <f t="shared" si="72"/>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="T64" s="14">
-        <f t="shared" si="73"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="U64" s="15">
-        <f t="shared" si="74"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="V64" s="19">
-        <f t="shared" si="75"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="W64" s="20">
-        <f t="shared" si="76"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="X64" s="20">
-        <f t="shared" si="77"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="Y64" s="21">
-        <f t="shared" si="78"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="Z64" s="25">
-        <f>BC64+(BD64*(1/12))-O64</f>
+        <f t="shared" si="55"/>
         <v>-23.095264500388154</v>
       </c>
       <c r="AA64" s="26">
-        <f>BE64+(BF64*(1/12))-O64</f>
+        <f t="shared" si="56"/>
         <v>-23.095264500388154</v>
       </c>
       <c r="AB64" s="26">
-        <f>BG64+(BH64*(1/12))-O64</f>
+        <f t="shared" si="57"/>
         <v>-23.095264500388154</v>
       </c>
       <c r="AC64" s="26">
-        <f t="shared" si="79"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="AD64" s="26">
-        <f t="shared" si="80"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AE64" s="27">
-        <f t="shared" si="81"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
     </row>
@@ -15165,50 +15172,100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288D40B2-8D17-4E8C-B058-6E84E51E63C4}">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D435E831-63AE-439F-B63C-033675B2FBBA}">
   <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="41" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.6640625" customWidth="1"/>
     <col min="5" max="5" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>221</v>
+        <v>360</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C1" s="38" t="s">
         <v>359</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>223</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="36">
         <v>1</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" t="s">
         <v>167</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E2" s="35">
         <v>4</v>
@@ -15218,14 +15275,14 @@
       <c r="A3" s="36">
         <v>2</v>
       </c>
-      <c r="B3" s="41" t="s">
-        <v>225</v>
+      <c r="B3" t="s">
+        <v>221</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E3" s="35">
         <v>0</v>
@@ -15235,14 +15292,14 @@
       <c r="A4" s="36">
         <v>3</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" t="s">
         <v>131</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E4" s="35">
         <v>5</v>
@@ -15252,14 +15309,14 @@
       <c r="A5" s="36">
         <v>4</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" t="s">
         <v>169</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E5" s="35">
         <v>6</v>
@@ -15269,14 +15326,14 @@
       <c r="A6" s="36">
         <v>5</v>
       </c>
-      <c r="B6" s="41" t="s">
-        <v>229</v>
+      <c r="B6" t="s">
+        <v>225</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E6" s="35">
         <v>3</v>
@@ -15286,14 +15343,14 @@
       <c r="A7" s="36">
         <v>6</v>
       </c>
-      <c r="B7" s="41" t="s">
-        <v>231</v>
+      <c r="B7" t="s">
+        <v>227</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E7" s="35">
         <v>7</v>
@@ -15303,14 +15360,14 @@
       <c r="A8" s="36">
         <v>7</v>
       </c>
-      <c r="B8" s="41" t="s">
-        <v>233</v>
+      <c r="B8" t="s">
+        <v>229</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E8" s="35">
         <v>3</v>
@@ -15320,14 +15377,14 @@
       <c r="A9" s="36">
         <v>8</v>
       </c>
-      <c r="B9" s="41" t="s">
-        <v>235</v>
+      <c r="B9" t="s">
+        <v>231</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E9" s="35">
         <v>3</v>
@@ -15337,14 +15394,14 @@
       <c r="A10" s="36">
         <v>9</v>
       </c>
-      <c r="B10" s="41" t="s">
-        <v>237</v>
+      <c r="B10" t="s">
+        <v>233</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E10" s="35">
         <v>2</v>
@@ -15357,14 +15414,14 @@
       <c r="A11" s="36">
         <v>10</v>
       </c>
-      <c r="B11" s="41" t="s">
-        <v>239</v>
+      <c r="B11" t="s">
+        <v>235</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E11" s="35">
         <v>5</v>
@@ -15374,14 +15431,14 @@
       <c r="A12" s="36">
         <v>11</v>
       </c>
-      <c r="B12" s="41" t="s">
-        <v>241</v>
+      <c r="B12" t="s">
+        <v>237</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E12" s="35">
         <v>0</v>
@@ -15391,14 +15448,14 @@
       <c r="A13" s="36">
         <v>12</v>
       </c>
-      <c r="B13" s="41" t="s">
-        <v>242</v>
+      <c r="B13" t="s">
+        <v>238</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E13" s="35">
         <v>6</v>
@@ -15408,14 +15465,14 @@
       <c r="A14" s="36">
         <v>13</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" t="s">
         <v>76</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E14" s="35">
         <v>6</v>
@@ -15425,14 +15482,14 @@
       <c r="A15" s="36">
         <v>14</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" t="s">
         <v>74</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E15" s="35">
         <v>4</v>
@@ -15442,14 +15499,14 @@
       <c r="A16" s="36">
         <v>15</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" t="s">
         <v>80</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E16" s="35">
         <v>6</v>
@@ -15459,14 +15516,14 @@
       <c r="A17" s="36">
         <v>16</v>
       </c>
-      <c r="B17" s="41" t="s">
-        <v>247</v>
+      <c r="B17" t="s">
+        <v>243</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E17" s="35">
         <v>4</v>
@@ -15476,14 +15533,14 @@
       <c r="A18" s="36">
         <v>17</v>
       </c>
-      <c r="B18" s="41" t="s">
-        <v>249</v>
+      <c r="B18" t="s">
+        <v>245</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E18" s="35">
         <v>7</v>
@@ -15493,14 +15550,14 @@
       <c r="A19" s="36">
         <v>18</v>
       </c>
-      <c r="B19" s="41" t="s">
-        <v>251</v>
+      <c r="B19" t="s">
+        <v>247</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E19" s="35">
         <v>3</v>
@@ -15510,14 +15567,14 @@
       <c r="A20" s="36">
         <v>19</v>
       </c>
-      <c r="B20" s="41" t="s">
-        <v>253</v>
+      <c r="B20" t="s">
+        <v>249</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E20" s="35">
         <v>1</v>
@@ -15527,14 +15584,14 @@
       <c r="A21" s="36">
         <v>20</v>
       </c>
-      <c r="B21" s="41" t="s">
-        <v>255</v>
+      <c r="B21" t="s">
+        <v>251</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E21" s="35">
         <v>4</v>
@@ -15544,14 +15601,14 @@
       <c r="A22" s="36">
         <v>21</v>
       </c>
-      <c r="B22" s="41" t="s">
-        <v>257</v>
+      <c r="B22" t="s">
+        <v>253</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E22" s="35">
         <v>5</v>
@@ -15561,14 +15618,14 @@
       <c r="A23" s="36">
         <v>22</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B23" t="s">
         <v>70</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E23" s="35">
         <v>5</v>
@@ -15578,14 +15635,14 @@
       <c r="A24" s="36">
         <v>23</v>
       </c>
-      <c r="B24" s="41" t="s">
-        <v>260</v>
+      <c r="B24" t="s">
+        <v>256</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E24" s="35">
         <v>5</v>
@@ -15595,14 +15652,14 @@
       <c r="A25" s="36">
         <v>24</v>
       </c>
-      <c r="B25" s="41" t="s">
-        <v>262</v>
+      <c r="B25" t="s">
+        <v>258</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E25" s="35">
         <v>4</v>
@@ -15612,14 +15669,14 @@
       <c r="A26" s="36">
         <v>25</v>
       </c>
-      <c r="B26" s="41" t="s">
-        <v>264</v>
+      <c r="B26" t="s">
+        <v>260</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E26" s="35">
         <v>8</v>
@@ -15629,14 +15686,14 @@
       <c r="A27" s="36">
         <v>26</v>
       </c>
-      <c r="B27" s="41" t="s">
-        <v>266</v>
+      <c r="B27" t="s">
+        <v>262</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E27" s="35">
         <v>4</v>
@@ -15646,14 +15703,14 @@
       <c r="A28" s="36">
         <v>27</v>
       </c>
-      <c r="B28" s="41" t="s">
-        <v>268</v>
+      <c r="B28" t="s">
+        <v>264</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E28" s="35">
         <v>6</v>
@@ -15663,14 +15720,14 @@
       <c r="A29" s="36">
         <v>28</v>
       </c>
-      <c r="B29" s="41" t="s">
-        <v>270</v>
+      <c r="B29" t="s">
+        <v>266</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E29" s="35">
         <v>5</v>
@@ -15680,14 +15737,14 @@
       <c r="A30" s="36">
         <v>29</v>
       </c>
-      <c r="B30" s="41" t="s">
-        <v>254</v>
+      <c r="B30" t="s">
+        <v>250</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E30" s="35">
         <v>3</v>
@@ -15697,14 +15754,14 @@
       <c r="A31" s="36">
         <v>30</v>
       </c>
-      <c r="B31" s="41" t="s">
-        <v>273</v>
+      <c r="B31" t="s">
+        <v>269</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E31" s="35">
         <v>3</v>
@@ -15714,14 +15771,14 @@
       <c r="A32" s="36">
         <v>31</v>
       </c>
-      <c r="B32" s="41" t="s">
+      <c r="B32" t="s">
         <v>109</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E32" s="35">
         <v>5</v>
@@ -15731,14 +15788,14 @@
       <c r="A33" s="36">
         <v>32</v>
       </c>
-      <c r="B33" s="41" t="s">
+      <c r="B33" t="s">
         <v>68</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E33" s="35">
         <v>6</v>
@@ -15748,14 +15805,14 @@
       <c r="A34" s="36">
         <v>33</v>
       </c>
-      <c r="B34" s="41" t="s">
+      <c r="B34" t="s">
         <v>183</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E34" s="35">
         <v>4</v>
@@ -15765,14 +15822,14 @@
       <c r="A35" s="36">
         <v>34</v>
       </c>
-      <c r="B35" s="41" t="s">
-        <v>278</v>
+      <c r="B35" t="s">
+        <v>274</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E35" s="35">
         <v>3</v>
@@ -15782,14 +15839,14 @@
       <c r="A36" s="36">
         <v>35</v>
       </c>
-      <c r="B36" s="41" t="s">
+      <c r="B36" t="s">
         <v>56</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D36" s="35" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E36" s="35">
         <v>5</v>
@@ -15799,14 +15856,14 @@
       <c r="A37" s="36">
         <v>36</v>
       </c>
-      <c r="B37" s="41" t="s">
-        <v>281</v>
+      <c r="B37" t="s">
+        <v>277</v>
       </c>
       <c r="C37" s="40" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E37" s="35">
         <v>6</v>
@@ -15816,14 +15873,14 @@
       <c r="A38" s="36">
         <v>37</v>
       </c>
-      <c r="B38" s="41" t="s">
-        <v>283</v>
+      <c r="B38" t="s">
+        <v>279</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E38" s="35">
         <v>4</v>
@@ -15833,14 +15890,14 @@
       <c r="A39" s="36">
         <v>38</v>
       </c>
-      <c r="B39" s="41" t="s">
-        <v>285</v>
+      <c r="B39" t="s">
+        <v>281</v>
       </c>
       <c r="C39" s="40" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E39" s="35">
         <v>6</v>
@@ -15850,14 +15907,14 @@
       <c r="A40" s="36">
         <v>39</v>
       </c>
-      <c r="B40" s="41" t="s">
-        <v>287</v>
+      <c r="B40" t="s">
+        <v>283</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E40" s="35">
         <v>3</v>
@@ -15867,14 +15924,14 @@
       <c r="A41" s="36">
         <v>40</v>
       </c>
-      <c r="B41" s="41" t="s">
-        <v>289</v>
+      <c r="B41" t="s">
+        <v>285</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D41" s="35" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E41" s="35">
         <v>2</v>
@@ -15884,14 +15941,14 @@
       <c r="A42" s="36">
         <v>41</v>
       </c>
-      <c r="B42" s="41" t="s">
-        <v>291</v>
+      <c r="B42" t="s">
+        <v>287</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E42" s="35">
         <v>6</v>
@@ -15901,14 +15958,14 @@
       <c r="A43" s="36">
         <v>42</v>
       </c>
-      <c r="B43" s="41" t="s">
-        <v>293</v>
+      <c r="B43" t="s">
+        <v>289</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D43" s="35" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E43" s="35">
         <v>8</v>
@@ -15918,14 +15975,14 @@
       <c r="A44" s="36">
         <v>43</v>
       </c>
-      <c r="B44" s="41" t="s">
+      <c r="B44" t="s">
         <v>86</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D44" s="35" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E44" s="35">
         <v>4</v>
@@ -15935,14 +15992,14 @@
       <c r="A45" s="36">
         <v>44</v>
       </c>
-      <c r="B45" s="41" t="s">
+      <c r="B45" t="s">
         <v>90</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E45" s="35">
         <v>6</v>
@@ -15952,14 +16009,14 @@
       <c r="A46" s="36">
         <v>45</v>
       </c>
-      <c r="B46" s="41" t="s">
-        <v>297</v>
+      <c r="B46" t="s">
+        <v>293</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D46" s="35" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E46" s="35">
         <v>3</v>
@@ -15969,14 +16026,14 @@
       <c r="A47" s="36">
         <v>46</v>
       </c>
-      <c r="B47" s="41" t="s">
-        <v>299</v>
+      <c r="B47" t="s">
+        <v>295</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D47" s="35" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E47" s="35">
         <v>5</v>
@@ -15986,14 +16043,14 @@
       <c r="A48" s="36">
         <v>47</v>
       </c>
-      <c r="B48" s="41" t="s">
-        <v>301</v>
+      <c r="B48" t="s">
+        <v>297</v>
       </c>
       <c r="C48" s="40" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D48" s="35" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E48" s="35">
         <v>2</v>
@@ -16003,14 +16060,14 @@
       <c r="A49" s="36">
         <v>48</v>
       </c>
-      <c r="B49" s="41" t="s">
-        <v>303</v>
+      <c r="B49" t="s">
+        <v>299</v>
       </c>
       <c r="C49" s="40" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D49" s="35" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E49" s="35">
         <v>5</v>
@@ -16020,14 +16077,14 @@
       <c r="A50" s="36">
         <v>49</v>
       </c>
-      <c r="B50" s="41" t="s">
-        <v>305</v>
+      <c r="B50" t="s">
+        <v>301</v>
       </c>
       <c r="C50" s="40" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D50" s="35" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E50" s="35">
         <v>4</v>
@@ -16037,14 +16094,14 @@
       <c r="A51" s="36">
         <v>50</v>
       </c>
-      <c r="B51" s="41" t="s">
-        <v>307</v>
+      <c r="B51" t="s">
+        <v>303</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D51" s="35" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E51" s="35">
         <v>6</v>
@@ -16059,7 +16116,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4965D272-89E5-49D7-829F-73E403747EB6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B758810F-D31B-4600-97F6-2276CA570BE3}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
